--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3870B5-EA3B-4AAB-9CBF-62F3CD6B9C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E5DCE-9ACF-4F73-BDCC-A88157260CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="476">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1508,6 +1508,24 @@
   </si>
   <si>
     <t>https://cip.gov.ua/ua/news/nakaz-pro-zatverdzhennya-bazovogo-profilyu-bezpeki-sistemi-de-obroblyayetsya-vidkrita-abo-konfidenciina-informaciya</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/712-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 18.06.2025 № 712 "Деякі питання захисту інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем"</t>
+  </si>
+  <si>
+    <t>https://www.kmu.gov.ua/npas/pro-zatverdzhennia-poriadku-provedennia-instruktazhiv-ta-systematychnykh-treninhiv-s1281081025</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 08 жовтня 2025 р. №1281 "Про затвердження Порядку проведення інструктажів та систематичних тренінгів щодо кібергігієни"</t>
+  </si>
+  <si>
+    <t>Порядок проведення інструктажів та систематичних тренінгів щодо кібергігієни</t>
+  </si>
+  <si>
+    <t>Порядок авторизації з безпеки інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1672,9 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2319,8 +2334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I203" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
-  <autoFilter ref="B17:I203" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I205" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+  <autoFilter ref="B17:I205" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I201">
     <sortCondition ref="B17:B201"/>
   </sortState>
@@ -2635,9 +2650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:I203"/>
+  <dimension ref="A2:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7349,13 +7366,13 @@
       <c r="B202" s="6">
         <v>185</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="D202" s="21" t="s">
+      <c r="D202" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="E202" s="22"/>
+      <c r="E202" s="7"/>
       <c r="F202" s="7" t="s">
         <v>208</v>
       </c>
@@ -7365,7 +7382,7 @@
       <c r="H202" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I202" s="23">
+      <c r="I202" s="14">
         <v>45838</v>
       </c>
     </row>
@@ -7373,13 +7390,13 @@
       <c r="B203" s="6">
         <v>186</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="D203" s="22" t="s">
+      <c r="D203" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="E203" s="22"/>
+      <c r="E203" s="7"/>
       <c r="F203" s="7" t="s">
         <v>208</v>
       </c>
@@ -7389,8 +7406,58 @@
       <c r="H203" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I203" s="23">
+      <c r="I203" s="14">
         <v>45840</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B204" s="21">
+        <v>187</v>
+      </c>
+      <c r="C204" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="D204" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="E204" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G204" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I204" s="22">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B205" s="21">
+        <v>188</v>
+      </c>
+      <c r="C205" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D205" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="E205" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="F205" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G205" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" s="21"/>
+      <c r="I205" s="22">
+        <v>45938</v>
       </c>
     </row>
   </sheetData>
@@ -7400,31 +7467,31 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:G203">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="G18:G205">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12 H14:H15">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7641,16 +7708,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G9">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E5DCE-9ACF-4F73-BDCC-A88157260CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2417ECBB-5EFB-4CE0-BC67-CBC89C6D8BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="482">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1526,6 +1526,24 @@
   </si>
   <si>
     <t>Порядок авторизації з безпеки інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 21.10.2025 № 661 «Про затвердження Методичних рекомендацій щодо проведення інструктажів і тренінгів щодо кібергігієни на період призначення на посади державних службовців, працівників органів державної влади та інших державних органів, військовослужбовців, керівників та працівників державних підприємств, установ та організацій»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-21-10-2025-661-pro-zatverdzhennya-metodichnikh-rekomendacii-shodo-provedennya-instruktazhiv-i-treningiv-shodo-kibergigiyeni-na-period-priznachennya-na-posadi-derzhavnikh-sluzhbovciv-pracivnikiv-organiv-derzhavnoyi-vladi-ta-inshikh-derzhavnikh-organiv-viiskovosluzhbovciv-kerivnikiv-ta-pracivnikiv-derzhavnikh-pidpriyemstv-ustanov-ta-organizacii</t>
+  </si>
+  <si>
+    <t>Рекомендації щодо проведення інструктажів і тренінгів щодо кібергігієни</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1335-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 22.10.2025 № 1335 "Про затвердження Порядку формування та ведення відкритого переліку забороненого до використання програмного забезпечення та комунікаційного (мережевого) обладнання"</t>
+  </si>
+  <si>
+    <t>Про порядок формування переліку забороненого до використання ПЗ</t>
   </si>
 </sst>
 </file>
@@ -2334,8 +2352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I205" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
-  <autoFilter ref="B17:I205" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I207" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+  <autoFilter ref="B17:I207" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I201">
     <sortCondition ref="B17:B201"/>
   </sortState>
@@ -2650,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:I205"/>
+  <dimension ref="A2:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7411,19 +7429,19 @@
       </c>
     </row>
     <row r="204" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B204" s="21">
+      <c r="B204" s="7">
         <v>187</v>
       </c>
-      <c r="C204" s="21" t="s">
+      <c r="C204" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D204" s="21" t="s">
+      <c r="D204" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="F204" s="21" t="s">
+      <c r="F204" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G204" s="19" t="s">
@@ -7432,32 +7450,80 @@
       <c r="H204" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I204" s="22">
+      <c r="I204" s="14">
         <v>45826</v>
       </c>
     </row>
     <row r="205" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B205" s="21">
+      <c r="B205" s="7">
         <v>188</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D205" s="21" t="s">
+      <c r="D205" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="E205" s="21" t="s">
+      <c r="E205" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F205" s="21" t="s">
+      <c r="F205" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G205" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H205" s="21"/>
-      <c r="I205" s="22">
+      <c r="H205" s="7"/>
+      <c r="I205" s="14">
         <v>45938</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="B206" s="21">
+        <v>189</v>
+      </c>
+      <c r="C206" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="D206" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E206" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G206" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="21"/>
+      <c r="I206" s="22">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="B207" s="21">
+        <v>190</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E207" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G207" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" s="21"/>
+      <c r="I207" s="22">
+        <v>45952</v>
       </c>
     </row>
   </sheetData>
@@ -7467,7 +7533,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:G205">
+  <conditionalFormatting sqref="G18:G207">
     <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2417ECBB-5EFB-4CE0-BC67-CBC89C6D8BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4271DF-ADB6-446D-BC57-9AE1B2072563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Управління кібербезпекою" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="484">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1544,6 +1544,12 @@
   </si>
   <si>
     <t>Про порядок формування переліку забороненого до використання ПЗ</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 12.12.2018 № 1062 "Про затвердження Основних засад функціонування внутрішнього контролю у розпорядників бюджетних коштів та внесення змін до постанови Кабінету Міністрів України від 28 вересня 2011 р. № 1001"</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1062-2018-%D0%BF#Text</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1709,107 +1715,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -2352,20 +2262,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I207" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I207" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <autoFilter ref="B17:I207" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I201">
     <sortCondition ref="B17:B201"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2670,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
   <dimension ref="A2:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
@@ -7479,16 +7389,16 @@
       </c>
     </row>
     <row r="206" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B206" s="21">
+      <c r="B206" s="7">
         <v>189</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D206" s="21" t="s">
+      <c r="D206" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="E206" s="21" t="s">
+      <c r="E206" s="7" t="s">
         <v>478</v>
       </c>
       <c r="F206" s="7" t="s">
@@ -7497,22 +7407,22 @@
       <c r="G206" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H206" s="21"/>
-      <c r="I206" s="22">
+      <c r="H206" s="7"/>
+      <c r="I206" s="14">
         <v>45951</v>
       </c>
     </row>
     <row r="207" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B207" s="21">
+      <c r="B207" s="7">
         <v>190</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="D207" s="21" t="s">
+      <c r="D207" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="E207" s="21" t="s">
+      <c r="E207" s="7" t="s">
         <v>481</v>
       </c>
       <c r="F207" s="7" t="s">
@@ -7521,8 +7431,8 @@
       <c r="G207" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H207" s="21"/>
-      <c r="I207" s="22">
+      <c r="H207" s="7"/>
+      <c r="I207" s="14">
         <v>45952</v>
       </c>
     </row>
@@ -7534,30 +7444,30 @@
     <mergeCell ref="C2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:G207">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12 H14:H15">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7570,9 +7480,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79120FD-74A7-4689-B3C4-1182B48EEDA5}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7661,81 +7571,79 @@
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="6" t="s">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17">
-        <v>42173</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="82.8" x14ac:dyDescent="0.3">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>171</v>
-      </c>
+      <c r="C7" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="6" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="11">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="H7" s="16"/>
+      <c r="I7" s="17">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>112</v>
@@ -7745,45 +7653,69 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="11">
-        <v>42965</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="69" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>464</v>
+        <v>172</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>463</v>
+        <v>173</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>465</v>
+        <v>168</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="11">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="11">
         <v>46388</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:G9">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4271DF-ADB6-446D-BC57-9AE1B2072563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9229FF8-C2AE-45B7-9584-4782A2AC5B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Управління кібербезпекою" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="526">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1409,13 +1409,7 @@
     <t>Дата прийняття</t>
   </si>
   <si>
-    <t>https://zakon.rada.gov.ua/laws/show/50-2025-%D0%BF#n17</t>
-  </si>
-  <si>
     <t>Постанова Кабінету Міністрів України від 17.01.2025 № 50 "Деякі питання впровадження процесного підходу в центральних органах виконавчої влади"</t>
-  </si>
-  <si>
-    <t>#Якість</t>
   </si>
   <si>
     <t>Наказ Адміністрації Держспецзв’язку від 14.01.2025 № 17 «Про затвердження Методики та Критеріїв і показників оцінки стану захищеності об’єктів критичної інфраструктури»</t>
@@ -1550,6 +1544,138 @@
   </si>
   <si>
     <t>https://zakon.rada.gov.ua/laws/show/1062-2018-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 03.12.2025 №798 «Про затвердження Методичних рекомендацій щодо типових вимог до підрозділів з кіберзахисту, загальних вимог до керівників з кіберзахисту в органах державної влади, а також до відповідальних осіб, які виконують функції та завдання керівника з кіберзахисту в юридичних особах, що є власниками або розпорядниками об’єктів критичної інформаційної інфраструктури I і II категорій критичності, та в органах місцевого самоврядування»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/n-798-2025</t>
+  </si>
+  <si>
+    <t>Типові вимоги до підрозділів з кіберзахисту, загальних вимог до керівників з кіберзахисту в органах державної влади</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 08.12.2025 № 810 «Про затвердження Рекомендацій з оцінювання дотримання вимог цільового профілю безпеки системи»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-08-12-2025-810-pro-zatverdzhennya-rekomendacii-z-ocinyuvannya-dotrimannya-vimog-cilovogo-profilyu-bezpeki-sistemi</t>
+  </si>
+  <si>
+    <t>Рекомендації з оцінювання дотримання вимог цільового профілю безпеки системи</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 08.12.2025 № 811 «Про затвердження Рекомендацій з розроблення цільового профілю безпеки системи»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-administraciyi-derzhspeczv-yazku-vid-08-12-2025-811-pro-zatverdzhennya-rekomendacii-z-rozroblennya-cilovogo-profilyu-bezpeki-sistemi</t>
+  </si>
+  <si>
+    <t>Рекомендації з розроблення цільового профілю безпеки системи</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 17.12.2025 № 843 «Про затвердження базового профілю безпеки системи, де обробляється інформація НАТО з грифом обмеження доступу NATO RESTRICTED/Для службового користування, яка не має мережевих з’єднань»</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/nakaz-843-2025</t>
+  </si>
+  <si>
+    <t>Базовий профіль безпеки системи, де обробляється інформація НАТО з грифом обмеження доступу NATO RESTRICTED/Для службового користування, яка не має мережевих з’єднань</t>
+  </si>
+  <si>
+    <t>Порядок розроблення, прийняття, внесення змін, скасування, відновлення дії, оприлюднення та запровадження стандартів криптографічного та технічного захисту інформації, кіберзахисту, протидії технічним розвідкам</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1424-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 05.11.2025 № 1424 "Про затвердження Порядку розроблення, прийняття, внесення змін, скасування, відновлення дії, оприлюднення та запровадження стандартів криптографічного та технічного захисту інформації, кіберзахисту, протидії технічним розвідкам"</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1580-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 03.12.2025 № 1580 "Деякі питання пошуку та виявлення потенційних вразливостей в інформаційно-комунікаційних системах"</t>
+  </si>
+  <si>
+    <t>Порядок пошуку та/або виявлення потенційних вразливостей в інформаційних, електронних комунікаційних та інформаційно-комунікаційних системах, в яких обробляються державні інформаційні ресурси або інформація з обмеженим доступом, вимога щодо захисту якої встановлена законом, а також на об’єктах критичної інформаційної інфраструктури</t>
+  </si>
+  <si>
+    <t>Положення про захист інформації та кіберзахист учасниками платіжного ринку</t>
+  </si>
+  <si>
+    <t>Постанова Правління Національного банку України від 28.09.2017 № 95</t>
+  </si>
+  <si>
+    <t>Положення про організацію заходів із забезпечення інформаційної безпеки</t>
+  </si>
+  <si>
+    <t>Положення про організацію системи управління ризиками</t>
+  </si>
+  <si>
+    <t>Постанова Правління Національного банку України  від 11.06.2018 №64</t>
+  </si>
+  <si>
+    <t>Постанова Правління Національного банку України від 19.05.2021 № 43</t>
+  </si>
+  <si>
+    <t>Положення про здійснення контролю за дотриманням банками вимог законодавства з питань інформаційної безпеки, кіберзахисту та електронних довірчих послуг</t>
+  </si>
+  <si>
+    <t>Постанова Правління Національного банку України  від 16.01.2021 № 4</t>
+  </si>
+  <si>
+    <t>Постанова Правління Національного банку України від 12.08.2022 № 178</t>
+  </si>
+  <si>
+    <t>Положення про організацію кіберзахисту</t>
+  </si>
+  <si>
+    <t>Положення про організацію системи внутрішнього контролю</t>
+  </si>
+  <si>
+    <t>Постанова Правління Національного банку України від 02.07.2019 № 88</t>
+  </si>
+  <si>
+    <t>Постанови Правління Національного банку України</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Положення про порядок застосування технології хмарних обчислень </t>
+  </si>
+  <si>
+    <t>Постанова Правління Національного банку України від 25.08.2025 № 99</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/v0099500-25#Text</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/v0088500-19#Text</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/v0178500-22#Text</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/v0004500-21</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/v0043500-21</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/v0064500-18#Text</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/v0095500-17#Text</t>
+  </si>
+  <si>
+    <t>Банки</t>
+  </si>
+  <si>
+    <t>Галузь</t>
+  </si>
+  <si>
+    <t>Сили оборони</t>
+  </si>
+  <si>
+    <t>ОКІ</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1715,11 +1841,522 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2262,20 +2899,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:I207" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
-  <autoFilter ref="B17:I207" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I201">
-    <sortCondition ref="B17:B201"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:J219" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
+  <autoFilter ref="B17:J219" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I200">
+    <sortCondition ref="B17:B200"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="12"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{2B27F073-AE91-4210-B0D6-642DEFE05F63}" name="Галузь" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2578,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:I207"/>
+  <dimension ref="A2:J219"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2668,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2680,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2778,7 +3416,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>14</v>
@@ -2804,8 +3442,11 @@
       <c r="I17" s="13" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="6">
         <v>1</v>
@@ -2827,8 +3468,11 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J18" s="27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
         <v>2</v>
@@ -2852,8 +3496,9 @@
         <v>28</v>
       </c>
       <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
         <v>3</v>
@@ -2875,8 +3520,9 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
         <v>4</v>
@@ -2898,8 +3544,9 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
         <v>5</v>
@@ -2921,8 +3568,9 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
         <v>6</v>
@@ -2944,8 +3592,9 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6">
         <v>7</v>
@@ -2967,8 +3616,9 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
         <v>8</v>
@@ -2990,8 +3640,9 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
         <v>9</v>
@@ -3000,10 +3651,10 @@
         <v>47</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>24</v>
@@ -3013,8 +3664,9 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
         <v>10</v>
@@ -3023,7 +3675,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>46</v>
@@ -3036,8 +3688,9 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
         <v>11</v>
@@ -3061,8 +3714,9 @@
         <v>52</v>
       </c>
       <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
         <v>12</v>
@@ -3071,10 +3725,10 @@
         <v>53</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
@@ -3084,8 +3738,9 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6">
         <v>13</v>
@@ -3107,8 +3762,9 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6">
         <v>14</v>
@@ -3130,8 +3786,9 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6">
         <v>15</v>
@@ -3153,8 +3810,9 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" ht="138" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6">
         <v>16</v>
@@ -3163,10 +3821,10 @@
         <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>24</v>
@@ -3176,8 +3834,9 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="6">
         <v>17</v>
@@ -3201,8 +3860,9 @@
         <v>63</v>
       </c>
       <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="6">
         <v>18</v>
@@ -3228,8 +3888,9 @@
       <c r="I35" s="11">
         <v>43013</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
         <v>19</v>
@@ -3255,8 +3916,9 @@
       <c r="I36" s="11">
         <v>43272</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
         <v>20</v>
@@ -3282,8 +3944,9 @@
       <c r="I37" s="11">
         <v>38771</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
         <v>21</v>
@@ -3309,8 +3972,11 @@
       <c r="I38" s="11">
         <v>44516</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J38" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
         <v>22</v>
@@ -3334,8 +4000,11 @@
       <c r="I39" s="11">
         <v>44181</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J39" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
         <v>23</v>
@@ -3359,8 +4028,11 @@
       <c r="I40" s="11">
         <v>34520</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J40" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
         <v>24</v>
@@ -3384,8 +4056,11 @@
       <c r="I41" s="11">
         <v>43013</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J41" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
         <v>25</v>
@@ -3411,8 +4086,11 @@
       <c r="I42" s="11">
         <v>40330</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J42" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
         <v>26</v>
@@ -3436,8 +4114,11 @@
       <c r="I43" s="11">
         <v>40556</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J43" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6">
         <v>27</v>
@@ -3463,8 +4144,11 @@
       <c r="I44" s="11">
         <v>44609</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J44" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
         <v>28</v>
@@ -3490,8 +4174,11 @@
       <c r="I45" s="11">
         <v>44434</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6">
         <v>29</v>
@@ -3517,8 +4204,11 @@
       <c r="I46" s="11">
         <v>44593</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J46" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
         <v>30</v>
@@ -3542,8 +4232,11 @@
       <c r="I47" s="11">
         <v>35937</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J47" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
         <v>31</v>
@@ -3569,8 +4262,11 @@
       <c r="I48" s="11">
         <v>36430</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J48" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
         <v>32</v>
@@ -3594,8 +4290,11 @@
       <c r="I49" s="11">
         <v>41885</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J49" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
         <v>33</v>
@@ -3621,8 +4320,11 @@
       <c r="I50" s="11">
         <v>43635</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J50" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
         <v>34</v>
@@ -3648,8 +4350,11 @@
       <c r="I51" s="11">
         <v>44113</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J51" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
         <v>35</v>
@@ -3675,8 +4380,11 @@
       <c r="I52" s="11">
         <v>44113</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="J52" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="138" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
         <v>36</v>
@@ -3702,8 +4410,11 @@
       <c r="I53" s="11">
         <v>44146</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J53" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
         <v>37</v>
@@ -3729,8 +4440,9 @@
       <c r="I54" s="11">
         <v>44188</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
         <v>38</v>
@@ -3756,8 +4468,9 @@
       <c r="I55" s="11">
         <v>45023</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
         <v>39</v>
@@ -3783,8 +4496,9 @@
       <c r="I56" s="11">
         <v>44559</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
         <v>40</v>
@@ -3808,8 +4522,9 @@
       <c r="I57" s="10" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
         <v>41</v>
@@ -3833,8 +4548,9 @@
       <c r="I58" s="10" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
         <v>42</v>
@@ -3858,8 +4574,9 @@
       <c r="I59" s="11">
         <v>38805</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <v>43</v>
@@ -3885,8 +4602,9 @@
       <c r="I60" s="11">
         <v>35711</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <v>44</v>
@@ -3912,8 +4630,9 @@
       <c r="I61" s="11">
         <v>40037</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J61" s="23"/>
+    </row>
+    <row r="62" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
         <v>45</v>
@@ -3939,8 +4658,9 @@
       <c r="I62" s="11">
         <v>37819</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
         <v>46</v>
@@ -3966,8 +4686,9 @@
       <c r="I63" s="11">
         <v>37819</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
         <v>47</v>
@@ -3993,8 +4714,9 @@
       <c r="I64" s="11">
         <v>37328</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
         <v>48</v>
@@ -4020,8 +4742,9 @@
       <c r="I65" s="11">
         <v>41626</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
         <v>49</v>
@@ -4045,8 +4768,9 @@
       <c r="I66" s="11">
         <v>35830</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J66" s="23"/>
+    </row>
+    <row r="67" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
         <v>50</v>
@@ -4072,8 +4796,9 @@
       <c r="I67" s="11">
         <v>42662</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J67" s="23"/>
+    </row>
+    <row r="68" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
         <v>51</v>
@@ -4097,8 +4822,9 @@
       <c r="I68" s="11">
         <v>37874</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J68" s="23"/>
+    </row>
+    <row r="69" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
         <v>52</v>
@@ -4124,8 +4850,9 @@
       <c r="I69" s="11">
         <v>35842</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="J69" s="23"/>
+    </row>
+    <row r="70" spans="1:10" ht="138" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
         <v>53</v>
@@ -4151,8 +4878,9 @@
       <c r="I70" s="11">
         <v>38567</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="J70" s="23"/>
+    </row>
+    <row r="71" spans="1:10" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
         <v>54</v>
@@ -4178,8 +4906,9 @@
       <c r="I71" s="11">
         <v>44188</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J71" s="23"/>
+    </row>
+    <row r="72" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="6">
         <v>55</v>
@@ -4205,8 +4934,11 @@
       <c r="I72" s="11">
         <v>45044</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="303.60000000000002" x14ac:dyDescent="0.25">
+      <c r="J72" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="6">
         <v>56</v>
@@ -4230,8 +4962,9 @@
       <c r="I73" s="11">
         <v>45034</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6">
         <v>57</v>
@@ -4257,8 +4990,9 @@
       <c r="I74" s="11">
         <v>45020</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="1:10" ht="138" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
         <v>58</v>
@@ -4282,8 +5016,9 @@
       <c r="I75" s="11">
         <v>45062</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J75" s="23"/>
+    </row>
+    <row r="76" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
         <v>59</v>
@@ -4307,8 +5042,9 @@
       <c r="I76" s="11">
         <v>44966</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J76" s="23"/>
+    </row>
+    <row r="77" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
         <v>60</v>
@@ -4334,8 +5070,9 @@
       <c r="I77" s="11">
         <v>44188</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J77" s="23"/>
+    </row>
+    <row r="78" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
         <v>61</v>
@@ -4361,8 +5098,9 @@
       <c r="I78" s="11">
         <v>39218</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J78" s="23"/>
+    </row>
+    <row r="79" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
         <v>62</v>
@@ -4386,8 +5124,9 @@
       <c r="I79" s="11">
         <v>42174</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="207" x14ac:dyDescent="0.25">
+      <c r="J79" s="23"/>
+    </row>
+    <row r="80" spans="1:10" ht="207" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
         <v>63</v>
@@ -4413,8 +5152,9 @@
       <c r="I80" s="11">
         <v>41975</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J80" s="23"/>
+    </row>
+    <row r="81" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
         <v>64</v>
@@ -4440,8 +5180,9 @@
       <c r="I81" s="11">
         <v>42384</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J81" s="23"/>
+    </row>
+    <row r="82" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6">
         <v>65</v>
@@ -4467,8 +5208,11 @@
       <c r="I82" s="11">
         <v>44211</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="J82" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="6">
         <v>66</v>
@@ -4494,8 +5238,11 @@
       <c r="I83" s="11">
         <v>44449</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <v>67</v>
       </c>
@@ -4520,8 +5267,11 @@
       <c r="I84" s="11">
         <v>44475</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="207" x14ac:dyDescent="0.25">
+      <c r="J84" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="207" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <v>68</v>
       </c>
@@ -4546,8 +5296,9 @@
       <c r="I85" s="11">
         <v>44736</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J85" s="23"/>
+    </row>
+    <row r="86" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>69</v>
       </c>
@@ -4570,8 +5321,9 @@
       <c r="I86" s="11">
         <v>45075</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J86" s="23"/>
+    </row>
+    <row r="87" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <v>70</v>
       </c>
@@ -4596,8 +5348,9 @@
       <c r="I87" s="11">
         <v>45110</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="J87" s="23"/>
+    </row>
+    <row r="88" spans="1:10" ht="289.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <v>71</v>
       </c>
@@ -4620,8 +5373,9 @@
       <c r="I88" s="11">
         <v>45121</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="J88" s="23"/>
+    </row>
+    <row r="89" spans="1:10" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <v>72</v>
       </c>
@@ -4644,8 +5398,9 @@
       <c r="I89" s="11">
         <v>39167</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="J89" s="23"/>
+    </row>
+    <row r="90" spans="1:10" ht="220.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <v>73</v>
       </c>
@@ -4668,8 +5423,9 @@
       <c r="I90" s="11">
         <v>39196</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="J90" s="23"/>
+    </row>
+    <row r="91" spans="1:10" ht="289.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <v>74</v>
       </c>
@@ -4694,8 +5450,9 @@
       <c r="I91" s="11">
         <v>39609</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J91" s="23"/>
+    </row>
+    <row r="92" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <v>75</v>
       </c>
@@ -4720,8 +5477,9 @@
       <c r="I92" s="11">
         <v>35065</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J92" s="23"/>
+    </row>
+    <row r="93" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <v>76</v>
       </c>
@@ -4746,8 +5504,9 @@
       <c r="I93" s="11">
         <v>35065</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J93" s="23"/>
+    </row>
+    <row r="94" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <v>77</v>
       </c>
@@ -4772,8 +5531,9 @@
       <c r="I94" s="11">
         <v>35431</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J94" s="23"/>
+    </row>
+    <row r="95" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
         <v>78</v>
       </c>
@@ -4796,8 +5556,9 @@
       <c r="I95" s="11">
         <v>36161</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J95" s="23"/>
+    </row>
+    <row r="96" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>373</v>
       </c>
@@ -4823,8 +5584,9 @@
       <c r="I96" s="11">
         <v>36161</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J96" s="23"/>
+    </row>
+    <row r="97" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <v>80</v>
       </c>
@@ -4847,8 +5609,9 @@
       <c r="I97" s="11">
         <v>36526</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J97" s="23"/>
+    </row>
+    <row r="98" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <v>81</v>
       </c>
@@ -4871,8 +5634,9 @@
       <c r="I98" s="11">
         <v>39448</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J98" s="23"/>
+    </row>
+    <row r="99" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <v>82</v>
       </c>
@@ -4895,8 +5659,9 @@
       <c r="I99" s="11">
         <v>36526</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J99" s="23"/>
+    </row>
+    <row r="100" spans="2:10" ht="69" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <v>83</v>
       </c>
@@ -4919,8 +5684,9 @@
       <c r="I100" s="11">
         <v>40909</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="J100" s="23"/>
+    </row>
+    <row r="101" spans="2:10" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <v>84</v>
       </c>
@@ -4944,8 +5710,9 @@
       <c r="I101" s="11">
         <v>37622</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J101" s="23"/>
+    </row>
+    <row r="102" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <v>85</v>
       </c>
@@ -4968,8 +5735,9 @@
       <c r="I102" s="11">
         <v>37987</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J102" s="23"/>
+    </row>
+    <row r="103" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <v>86</v>
       </c>
@@ -4992,8 +5760,9 @@
       <c r="I103" s="11">
         <v>41275</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J103" s="23"/>
+    </row>
+    <row r="104" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>87</v>
       </c>
@@ -5016,8 +5785,9 @@
       <c r="I104" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J104" s="23"/>
+    </row>
+    <row r="105" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>88</v>
       </c>
@@ -5040,8 +5810,9 @@
       <c r="I105" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J105" s="23"/>
+    </row>
+    <row r="106" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>89</v>
       </c>
@@ -5064,8 +5835,9 @@
       <c r="I106" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J106" s="23"/>
+    </row>
+    <row r="107" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>90</v>
       </c>
@@ -5088,8 +5860,9 @@
       <c r="I107" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J107" s="23"/>
+    </row>
+    <row r="108" spans="2:10" ht="69" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>91</v>
       </c>
@@ -5112,8 +5885,9 @@
       <c r="I108" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="J108" s="23"/>
+    </row>
+    <row r="109" spans="2:10" ht="138" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <v>92</v>
       </c>
@@ -5137,8 +5911,9 @@
       <c r="I109" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="J109" s="23"/>
+    </row>
+    <row r="110" spans="2:10" ht="138" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <v>93</v>
       </c>
@@ -5162,8 +5937,9 @@
       <c r="I110" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J110" s="23"/>
+    </row>
+    <row r="111" spans="2:10" ht="69" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <v>94</v>
       </c>
@@ -5186,8 +5962,9 @@
       <c r="I111" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J111" s="23"/>
+    </row>
+    <row r="112" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
         <v>95</v>
       </c>
@@ -5210,8 +5987,9 @@
       <c r="I112" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J112" s="23"/>
+    </row>
+    <row r="113" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
         <v>96</v>
       </c>
@@ -5234,8 +6012,9 @@
       <c r="I113" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J113" s="23"/>
+    </row>
+    <row r="114" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
         <v>97</v>
       </c>
@@ -5258,8 +6037,9 @@
       <c r="I114" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J114" s="23"/>
+    </row>
+    <row r="115" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
         <v>98</v>
       </c>
@@ -5282,8 +6062,9 @@
       <c r="I115" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J115" s="23"/>
+    </row>
+    <row r="116" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <v>99</v>
       </c>
@@ -5306,8 +6087,9 @@
       <c r="I116" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J116" s="23"/>
+    </row>
+    <row r="117" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
         <v>100</v>
       </c>
@@ -5330,8 +6112,9 @@
       <c r="I117" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J117" s="23"/>
+    </row>
+    <row r="118" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>420</v>
       </c>
@@ -5358,8 +6141,9 @@
       <c r="I118" s="11">
         <v>45292</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J118" s="23"/>
+    </row>
+    <row r="119" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <v>102</v>
       </c>
@@ -5383,8 +6167,9 @@
       <c r="I119" s="11">
         <v>45292</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J119" s="23"/>
+    </row>
+    <row r="120" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <v>103</v>
       </c>
@@ -5408,8 +6193,9 @@
       <c r="I120" s="11">
         <v>45292</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J120" s="23"/>
+    </row>
+    <row r="121" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <v>104</v>
       </c>
@@ -5432,8 +6218,9 @@
       <c r="I121" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J121" s="23"/>
+    </row>
+    <row r="122" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <v>105</v>
       </c>
@@ -5456,8 +6243,9 @@
       <c r="I122" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J122" s="23"/>
+    </row>
+    <row r="123" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
         <v>106</v>
       </c>
@@ -5480,8 +6268,9 @@
       <c r="I123" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J123" s="23"/>
+    </row>
+    <row r="124" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
         <v>107</v>
       </c>
@@ -5504,8 +6293,9 @@
       <c r="I124" s="11">
         <v>36161</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J124" s="23"/>
+    </row>
+    <row r="125" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
         <v>108</v>
       </c>
@@ -5528,8 +6318,9 @@
       <c r="I125" s="11">
         <v>36161</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J125" s="23"/>
+    </row>
+    <row r="126" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
         <v>109</v>
       </c>
@@ -5552,8 +6343,9 @@
       <c r="I126" s="11">
         <v>36161</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J126" s="23"/>
+    </row>
+    <row r="127" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
         <v>110</v>
       </c>
@@ -5576,8 +6368,9 @@
       <c r="I127" s="11">
         <v>37257</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J127" s="23"/>
+    </row>
+    <row r="128" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
         <v>111</v>
       </c>
@@ -5600,8 +6393,9 @@
       <c r="I128" s="11">
         <v>37622</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J128" s="23"/>
+    </row>
+    <row r="129" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
         <v>112</v>
       </c>
@@ -5624,8 +6418,9 @@
       <c r="I129" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J129" s="23"/>
+    </row>
+    <row r="130" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
         <v>113</v>
       </c>
@@ -5648,8 +6443,9 @@
       <c r="I130" s="11">
         <v>40544</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J130" s="23"/>
+    </row>
+    <row r="131" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
         <v>114</v>
       </c>
@@ -5673,8 +6469,9 @@
       <c r="I131" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="J131" s="23"/>
+    </row>
+    <row r="132" spans="2:10" ht="69" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
         <v>115</v>
       </c>
@@ -5697,8 +6494,9 @@
       <c r="I132" s="11">
         <v>36161</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J132" s="23"/>
+    </row>
+    <row r="133" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
         <v>116</v>
       </c>
@@ -5721,8 +6519,9 @@
       <c r="I133" s="11">
         <v>39814</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J133" s="23"/>
+    </row>
+    <row r="134" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
         <v>117</v>
       </c>
@@ -5745,8 +6544,9 @@
       <c r="I134" s="11">
         <v>39814</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J134" s="23"/>
+    </row>
+    <row r="135" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
         <v>118</v>
       </c>
@@ -5769,8 +6569,9 @@
       <c r="I135" s="11">
         <v>40909</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J135" s="23"/>
+    </row>
+    <row r="136" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
         <v>119</v>
       </c>
@@ -5793,8 +6594,9 @@
       <c r="I136" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J136" s="23"/>
+    </row>
+    <row r="137" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
         <v>120</v>
       </c>
@@ -5815,8 +6617,9 @@
       <c r="I137" s="11">
         <v>36526</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J137" s="23"/>
+    </row>
+    <row r="138" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
         <v>121</v>
       </c>
@@ -5839,8 +6642,9 @@
       <c r="I138" s="11">
         <v>42370</v>
       </c>
-    </row>
-    <row r="139" spans="2:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J138" s="23"/>
+    </row>
+    <row r="139" spans="2:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
         <v>122</v>
       </c>
@@ -5864,8 +6668,9 @@
       <c r="I139" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="J139" s="23"/>
+    </row>
+    <row r="140" spans="2:10" ht="165.6" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
         <v>123</v>
       </c>
@@ -5889,8 +6694,9 @@
       <c r="I140" s="11">
         <v>36526</v>
       </c>
-    </row>
-    <row r="141" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J140" s="23"/>
+    </row>
+    <row r="141" spans="2:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
         <v>124</v>
       </c>
@@ -5914,8 +6720,9 @@
       <c r="I141" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J141" s="23"/>
+    </row>
+    <row r="142" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
         <v>125</v>
       </c>
@@ -5939,8 +6746,9 @@
       <c r="I142" s="11">
         <v>45292</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J142" s="23"/>
+    </row>
+    <row r="143" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
         <v>126</v>
       </c>
@@ -5964,8 +6772,9 @@
       <c r="I143" s="11">
         <v>45292</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J143" s="23"/>
+    </row>
+    <row r="144" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
         <v>127</v>
       </c>
@@ -5989,8 +6798,9 @@
       <c r="I144" s="11">
         <v>45292</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J144" s="23"/>
+    </row>
+    <row r="145" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
         <v>128</v>
       </c>
@@ -6013,8 +6823,9 @@
       <c r="I145" s="11">
         <v>36161</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J145" s="23"/>
+    </row>
+    <row r="146" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
         <v>129</v>
       </c>
@@ -6037,8 +6848,9 @@
       <c r="I146" s="11">
         <v>44927</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J146" s="23"/>
+    </row>
+    <row r="147" spans="2:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
         <v>130</v>
       </c>
@@ -6062,8 +6874,9 @@
       <c r="I147" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J147" s="23"/>
+    </row>
+    <row r="148" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
         <v>131</v>
       </c>
@@ -6086,8 +6899,9 @@
       <c r="I148" s="11">
         <v>36526</v>
       </c>
-    </row>
-    <row r="149" spans="2:9" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="J148" s="23"/>
+    </row>
+    <row r="149" spans="2:10" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
         <v>132</v>
       </c>
@@ -6110,8 +6924,9 @@
       <c r="I149" s="11">
         <v>34700</v>
       </c>
-    </row>
-    <row r="150" spans="2:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J149" s="23"/>
+    </row>
+    <row r="150" spans="2:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
         <v>133</v>
       </c>
@@ -6134,8 +6949,9 @@
       <c r="I150" s="11">
         <v>34700</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J150" s="23"/>
+    </row>
+    <row r="151" spans="2:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
         <v>134</v>
       </c>
@@ -6158,8 +6974,9 @@
       <c r="I151" s="11">
         <v>45467</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J151" s="23"/>
+    </row>
+    <row r="152" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
         <v>135</v>
       </c>
@@ -6182,8 +6999,11 @@
       <c r="I152" s="11">
         <v>45412</v>
       </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
         <v>136</v>
       </c>
@@ -6203,8 +7023,11 @@
       <c r="I153" s="11">
         <v>43466</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="6">
         <v>137</v>
       </c>
@@ -6224,8 +7047,11 @@
       <c r="I154" s="11">
         <v>43466</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="6">
         <v>138</v>
       </c>
@@ -6245,8 +7071,11 @@
       <c r="I155" s="11">
         <v>42736</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="6">
         <v>139</v>
       </c>
@@ -6266,8 +7095,11 @@
       <c r="I156" s="11">
         <v>42736</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
         <v>140</v>
       </c>
@@ -6287,8 +7119,11 @@
       <c r="I157" s="11">
         <v>43466</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="6">
         <v>141</v>
       </c>
@@ -6308,8 +7143,11 @@
       <c r="I158" s="11">
         <v>43466</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="6">
         <v>142</v>
       </c>
@@ -6329,8 +7167,11 @@
       <c r="I159" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="6">
         <v>143</v>
       </c>
@@ -6350,8 +7191,11 @@
       <c r="I160" s="11" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="6">
         <v>144</v>
       </c>
@@ -6374,8 +7218,11 @@
       <c r="I161" s="11">
         <v>40179</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="6">
         <v>145</v>
       </c>
@@ -6395,8 +7242,11 @@
       <c r="I162" s="11">
         <v>41640</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
         <v>146</v>
       </c>
@@ -6416,8 +7266,11 @@
       <c r="I163" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="6">
         <v>147</v>
       </c>
@@ -6437,8 +7290,11 @@
       <c r="I164" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="6">
         <v>148</v>
       </c>
@@ -6461,8 +7317,11 @@
       <c r="I165" s="11">
         <v>36526</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="6">
         <v>149</v>
       </c>
@@ -6485,8 +7344,11 @@
       <c r="I166" s="11">
         <v>36526</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="6">
         <v>150</v>
       </c>
@@ -6509,8 +7371,11 @@
       <c r="I167" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
         <v>151</v>
       </c>
@@ -6533,8 +7398,11 @@
       <c r="I168" s="11">
         <v>36892</v>
       </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="6">
         <v>152</v>
       </c>
@@ -6557,8 +7425,11 @@
       <c r="I169" s="11">
         <v>37257</v>
       </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="6">
         <v>153</v>
       </c>
@@ -6581,8 +7452,11 @@
       <c r="I170" s="11">
         <v>37257</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
         <v>154</v>
       </c>
@@ -6605,8 +7479,11 @@
       <c r="I171" s="11">
         <v>37622</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="6">
         <v>155</v>
       </c>
@@ -6629,8 +7506,11 @@
       <c r="I172" s="11">
         <v>37987</v>
       </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="6">
         <v>156</v>
       </c>
@@ -6653,8 +7533,11 @@
       <c r="I173" s="11">
         <v>38353</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="6">
         <v>157</v>
       </c>
@@ -6674,8 +7557,11 @@
       <c r="I174" s="11">
         <v>38718</v>
       </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="6">
         <v>158</v>
       </c>
@@ -6695,8 +7581,11 @@
       <c r="I175" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="6">
         <v>159</v>
       </c>
@@ -6719,8 +7608,11 @@
       <c r="I176" s="11">
         <v>44562</v>
       </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="6">
         <v>160</v>
       </c>
@@ -6740,8 +7632,11 @@
       <c r="I177" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="6">
         <v>161</v>
       </c>
@@ -6764,8 +7659,11 @@
       <c r="I178" s="11">
         <v>37257</v>
       </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="6">
         <v>162</v>
       </c>
@@ -6788,8 +7686,11 @@
       <c r="I179" s="11">
         <v>37257</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="6">
         <v>163</v>
       </c>
@@ -6812,8 +7713,11 @@
       <c r="I180" s="11">
         <v>39083</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" s="6">
         <v>164</v>
       </c>
@@ -6833,8 +7737,11 @@
       <c r="I181" s="11">
         <v>39448</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" s="6">
         <v>165</v>
       </c>
@@ -6854,8 +7761,11 @@
       <c r="I182" s="11">
         <v>42005</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" s="6">
         <v>166</v>
       </c>
@@ -6875,8 +7785,11 @@
       <c r="I183" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" s="6">
         <v>167</v>
       </c>
@@ -6896,8 +7809,11 @@
       <c r="I184" s="11">
         <v>44562</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" s="6">
         <v>168</v>
       </c>
@@ -6917,8 +7833,11 @@
       <c r="I185" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" s="6">
         <v>169</v>
       </c>
@@ -6938,8 +7857,11 @@
       <c r="I186" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" s="6">
         <v>170</v>
       </c>
@@ -6959,8 +7881,11 @@
       <c r="I187" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" s="6">
         <v>171</v>
       </c>
@@ -6980,8 +7905,11 @@
       <c r="I188" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" s="6">
         <v>172</v>
       </c>
@@ -7001,8 +7929,11 @@
       <c r="I189" s="11">
         <v>44197</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" ht="138" x14ac:dyDescent="0.25">
+      <c r="J189" s="23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" ht="138" x14ac:dyDescent="0.25">
       <c r="B190" s="6">
         <v>173</v>
       </c>
@@ -7025,8 +7956,9 @@
       <c r="I190" s="11">
         <v>45549</v>
       </c>
-    </row>
-    <row r="191" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J190" s="23"/>
+    </row>
+    <row r="191" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B191" s="6">
         <v>174</v>
       </c>
@@ -7051,8 +7983,9 @@
       <c r="I191" s="14">
         <v>42298</v>
       </c>
-    </row>
-    <row r="192" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J191" s="23"/>
+    </row>
+    <row r="192" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
         <v>175</v>
       </c>
@@ -7077,8 +8010,9 @@
       <c r="I192" s="14">
         <v>45687</v>
       </c>
-    </row>
-    <row r="193" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J192" s="23"/>
+    </row>
+    <row r="193" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B193" s="6">
         <v>176</v>
       </c>
@@ -7101,8 +8035,11 @@
       <c r="I193" s="14">
         <v>45623</v>
       </c>
-    </row>
-    <row r="194" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J193" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
         <v>177</v>
       </c>
@@ -7123,8 +8060,9 @@
       <c r="I194" s="14">
         <v>45709</v>
       </c>
-    </row>
-    <row r="195" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J194" s="23"/>
+    </row>
+    <row r="195" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
         <v>178</v>
       </c>
@@ -7147,8 +8085,9 @@
       <c r="I195" s="14">
         <v>45699</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J195" s="23"/>
+    </row>
+    <row r="196" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
         <v>179</v>
       </c>
@@ -7171,8 +8110,9 @@
       <c r="I196" s="14">
         <v>45645</v>
       </c>
-    </row>
-    <row r="197" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J196" s="23"/>
+    </row>
+    <row r="197" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
         <v>180</v>
       </c>
@@ -7193,92 +8133,100 @@
         <v>256</v>
       </c>
       <c r="I197" s="15"/>
-    </row>
-    <row r="198" spans="2:9" ht="69" x14ac:dyDescent="0.25">
-      <c r="B198" s="6">
+      <c r="J197" s="23"/>
+    </row>
+    <row r="198" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B198" s="21">
         <v>181</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>438</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="I198" s="14">
-        <v>45674</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B199" s="6">
+        <v>45671</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B199" s="21">
         <v>182</v>
       </c>
       <c r="C199" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="7" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I199" s="14">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B200" s="6">
+        <v>45743</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B200" s="21">
         <v>183</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G200" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G200" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="I200" s="14">
-        <v>45743</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B201" s="6">
+        <v>45826</v>
+      </c>
+      <c r="J200" s="23"/>
+    </row>
+    <row r="201" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B201" s="21">
         <v>184</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="G201" s="19" t="s">
         <v>11</v>
@@ -7287,18 +8235,19 @@
         <v>256</v>
       </c>
       <c r="I201" s="14">
-        <v>45826</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B202" s="6">
+        <v>45838</v>
+      </c>
+      <c r="J201" s="23"/>
+    </row>
+    <row r="202" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B202" s="21">
         <v>185</v>
       </c>
       <c r="C202" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7" t="s">
@@ -7311,22 +8260,25 @@
         <v>256</v>
       </c>
       <c r="I202" s="14">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B203" s="6">
+        <v>45840</v>
+      </c>
+      <c r="J202" s="23"/>
+    </row>
+    <row r="203" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B203" s="21">
         <v>186</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="E203" s="7"/>
+      <c r="E203" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="F203" s="7" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="G203" s="19" t="s">
         <v>11</v>
@@ -7335,11 +8287,12 @@
         <v>256</v>
       </c>
       <c r="I203" s="14">
-        <v>45840</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B204" s="7">
+        <v>45826</v>
+      </c>
+      <c r="J203" s="23"/>
+    </row>
+    <row r="204" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B204" s="21">
         <v>187</v>
       </c>
       <c r="C204" s="7" t="s">
@@ -7349,7 +8302,7 @@
         <v>470</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>112</v>
@@ -7357,83 +8310,401 @@
       <c r="G204" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H204" s="7" t="s">
-        <v>256</v>
-      </c>
+      <c r="H204" s="7"/>
       <c r="I204" s="14">
-        <v>45826</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B205" s="7">
+        <v>45938</v>
+      </c>
+      <c r="J204" s="23"/>
+    </row>
+    <row r="205" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="B205" s="21">
         <v>188</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="G205" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H205" s="7"/>
       <c r="I205" s="14">
-        <v>45938</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B206" s="7">
+        <v>45951</v>
+      </c>
+      <c r="J205" s="23"/>
+    </row>
+    <row r="206" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="B206" s="21">
         <v>189</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>477</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="G206" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="14">
-        <v>45951</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B207" s="7">
+        <v>45952</v>
+      </c>
+      <c r="J206" s="23"/>
+    </row>
+    <row r="207" spans="2:10" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="B207" s="21">
         <v>190</v>
       </c>
-      <c r="C207" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F207" s="7" t="s">
+      <c r="C207" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="D207" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="E207" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G207" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" s="21"/>
+      <c r="I207" s="24">
+        <v>45994</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B208" s="21">
+        <v>191</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="E208" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="F208" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G208" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" s="22"/>
+      <c r="I208" s="24">
+        <v>45999</v>
+      </c>
+      <c r="J208" s="23"/>
+    </row>
+    <row r="209" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B209" s="21">
+        <v>192</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G209" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="22"/>
+      <c r="I209" s="24">
+        <v>45999</v>
+      </c>
+      <c r="J209" s="23"/>
+    </row>
+    <row r="210" spans="2:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="B210" s="21">
+        <v>193</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="F210" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G210" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" s="22"/>
+      <c r="I210" s="24">
+        <v>46008</v>
+      </c>
+      <c r="J210" s="23"/>
+    </row>
+    <row r="211" spans="2:10" ht="138" x14ac:dyDescent="0.25">
+      <c r="B211" s="21">
+        <v>194</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="F211" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G207" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H207" s="7"/>
-      <c r="I207" s="14">
-        <v>45952</v>
+      <c r="G211" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="22"/>
+      <c r="I211" s="26">
+        <v>45966</v>
+      </c>
+      <c r="J211" s="23"/>
+    </row>
+    <row r="212" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B212" s="21">
+        <v>195</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="E212" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G212" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" s="22"/>
+      <c r="I212" s="26">
+        <v>45994</v>
+      </c>
+      <c r="J212" s="23"/>
+    </row>
+    <row r="213" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B213" s="21">
+        <v>196</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F213" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G213" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" s="22"/>
+      <c r="I213" s="26">
+        <v>43006</v>
+      </c>
+      <c r="J213" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B214" s="21">
+        <v>197</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G214" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" s="22"/>
+      <c r="I214" s="26">
+        <v>43262</v>
+      </c>
+      <c r="J214" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B215" s="21">
+        <v>198</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G215" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" s="22"/>
+      <c r="I215" s="26">
+        <v>44335</v>
+      </c>
+      <c r="J215" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B216" s="21">
+        <v>199</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G216" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" s="22"/>
+      <c r="I216" s="26">
+        <v>44212</v>
+      </c>
+      <c r="J216" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B217" s="21">
+        <v>200</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E217" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="F217" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G217" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="22"/>
+      <c r="I217" s="26">
+        <v>44785</v>
+      </c>
+      <c r="J217" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B218" s="21">
+        <v>201</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E218" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="F218" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G218" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" s="22"/>
+      <c r="I218" s="26">
+        <v>43648</v>
+      </c>
+      <c r="J218" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B219" s="21">
+        <v>202</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E219" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="F219" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G219" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" s="22"/>
+      <c r="I219" s="26">
+        <v>45894</v>
+      </c>
+      <c r="J219" s="25" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -7443,31 +8714,31 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:G207">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="G18:G219">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12 H14:H15">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7482,7 +8753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79120FD-74A7-4689-B3C4-1182B48EEDA5}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7530,7 +8801,7 @@
         <v>167</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="6" t="s">
@@ -7549,10 +8820,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="6" t="s">
@@ -7571,10 +8842,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="6" t="s">
@@ -7593,14 +8864,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -7615,14 +8886,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -7685,13 +8956,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>67</v>
@@ -7706,16 +8977,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\користувач\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9229FF8-C2AE-45B7-9584-4782A2AC5B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E99736-C1CC-40CC-843D-F2904ADE5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
   <sheets>
     <sheet name="Управління кібербезпекою" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="531">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1676,6 +1676,21 @@
   </si>
   <si>
     <t>ОКІ</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/764-2024-%D0%BF</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 28.06.2024 № 764 "Деякі питання електронної ідентифікації та електронних довірчих послуг"</t>
+  </si>
+  <si>
+    <t>Надавачі електронних довірчих послуг</t>
+  </si>
+  <si>
+    <t>Надавачі електронних довірчих послуг, #ОКІ, #ОКІІ</t>
+  </si>
+  <si>
+    <t>Вимога надавачам електронних довірчих послуг, серед іншого, відповідати вимогам ДСТУ ISO/IEC 27001:2023</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1841,17 +1856,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1859,54 +1865,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <b/>
@@ -2089,408 +2052,43 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2899,21 +2497,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:J219" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
-  <autoFilter ref="B17:J219" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:J220" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
+  <autoFilter ref="B17:J220" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I200">
     <sortCondition ref="B17:B200"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{2B27F073-AE91-4210-B0D6-642DEFE05F63}" name="Галузь" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{2B27F073-AE91-4210-B0D6-642DEFE05F63}" name="Галузь" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3216,28 +2814,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:J219"/>
+  <dimension ref="A2:J220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +2845,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3406,7 +3004,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3468,11 +3066,11 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="12" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
         <v>2</v>
@@ -3496,9 +3094,9 @@
         <v>28</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
         <v>3</v>
@@ -3520,9 +3118,9 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
         <v>4</v>
@@ -3544,9 +3142,9 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
         <v>5</v>
@@ -3568,9 +3166,9 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
         <v>6</v>
@@ -3592,9 +3190,9 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6">
         <v>7</v>
@@ -3616,9 +3214,9 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
         <v>8</v>
@@ -3640,9 +3238,9 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
         <v>9</v>
@@ -3664,9 +3262,9 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
         <v>10</v>
@@ -3688,9 +3286,9 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
         <v>11</v>
@@ -3714,9 +3312,9 @@
         <v>52</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
         <v>12</v>
@@ -3738,7 +3336,7 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -3762,7 +3360,7 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -3786,9 +3384,9 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6">
         <v>15</v>
@@ -3810,9 +3408,9 @@
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="10"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10" ht="138" x14ac:dyDescent="0.25">
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6">
         <v>16</v>
@@ -3834,9 +3432,9 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="10"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="6">
         <v>17</v>
@@ -3860,7 +3458,7 @@
         <v>63</v>
       </c>
       <c r="I34" s="10"/>
-      <c r="J34" s="23"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -3888,9 +3486,9 @@
       <c r="I35" s="11">
         <v>43013</v>
       </c>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
         <v>19</v>
@@ -3916,9 +3514,9 @@
       <c r="I36" s="11">
         <v>43272</v>
       </c>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
         <v>20</v>
@@ -3944,9 +3542,9 @@
       <c r="I37" s="11">
         <v>38771</v>
       </c>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
         <v>21</v>
@@ -3976,7 +3574,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
         <v>22</v>
@@ -4004,7 +3602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
         <v>23</v>
@@ -4032,7 +3630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
         <v>24</v>
@@ -4057,10 +3655,10 @@
         <v>43013</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
         <v>25</v>
@@ -4090,7 +3688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
         <v>26</v>
@@ -4118,7 +3716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6">
         <v>27</v>
@@ -4148,7 +3746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
         <v>28</v>
@@ -4208,7 +3806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
         <v>30</v>
@@ -4236,7 +3834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
         <v>31</v>
@@ -4266,7 +3864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
         <v>32</v>
@@ -4294,7 +3892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
         <v>33</v>
@@ -4324,7 +3922,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
         <v>34</v>
@@ -4354,7 +3952,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
         <v>35</v>
@@ -4384,7 +3982,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="138" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
         <v>36</v>
@@ -4414,7 +4012,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
         <v>37</v>
@@ -4440,9 +4038,9 @@
       <c r="I54" s="11">
         <v>44188</v>
       </c>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
         <v>38</v>
@@ -4468,9 +4066,9 @@
       <c r="I55" s="11">
         <v>45023</v>
       </c>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
         <v>39</v>
@@ -4496,9 +4094,9 @@
       <c r="I56" s="11">
         <v>44559</v>
       </c>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
         <v>40</v>
@@ -4522,9 +4120,9 @@
       <c r="I57" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="J57" s="23"/>
-    </row>
-    <row r="58" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
         <v>41</v>
@@ -4548,9 +4146,9 @@
       <c r="I58" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
         <v>42</v>
@@ -4574,9 +4172,9 @@
       <c r="I59" s="11">
         <v>38805</v>
       </c>
-      <c r="J59" s="23"/>
-    </row>
-    <row r="60" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <v>43</v>
@@ -4602,9 +4200,9 @@
       <c r="I60" s="11">
         <v>35711</v>
       </c>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <v>44</v>
@@ -4630,9 +4228,9 @@
       <c r="I61" s="11">
         <v>40037</v>
       </c>
-      <c r="J61" s="23"/>
-    </row>
-    <row r="62" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
         <v>45</v>
@@ -4658,9 +4256,9 @@
       <c r="I62" s="11">
         <v>37819</v>
       </c>
-      <c r="J62" s="23"/>
-    </row>
-    <row r="63" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
         <v>46</v>
@@ -4686,9 +4284,9 @@
       <c r="I63" s="11">
         <v>37819</v>
       </c>
-      <c r="J63" s="23"/>
-    </row>
-    <row r="64" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
         <v>47</v>
@@ -4714,9 +4312,9 @@
       <c r="I64" s="11">
         <v>37328</v>
       </c>
-      <c r="J64" s="23"/>
-    </row>
-    <row r="65" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
         <v>48</v>
@@ -4742,9 +4340,9 @@
       <c r="I65" s="11">
         <v>41626</v>
       </c>
-      <c r="J65" s="23"/>
-    </row>
-    <row r="66" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
         <v>49</v>
@@ -4768,9 +4366,9 @@
       <c r="I66" s="11">
         <v>35830</v>
       </c>
-      <c r="J66" s="23"/>
-    </row>
-    <row r="67" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
         <v>50</v>
@@ -4796,9 +4394,9 @@
       <c r="I67" s="11">
         <v>42662</v>
       </c>
-      <c r="J67" s="23"/>
-    </row>
-    <row r="68" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
         <v>51</v>
@@ -4822,9 +4420,9 @@
       <c r="I68" s="11">
         <v>37874</v>
       </c>
-      <c r="J68" s="23"/>
-    </row>
-    <row r="69" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
         <v>52</v>
@@ -4850,9 +4448,9 @@
       <c r="I69" s="11">
         <v>35842</v>
       </c>
-      <c r="J69" s="23"/>
-    </row>
-    <row r="70" spans="1:10" ht="138" x14ac:dyDescent="0.25">
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
         <v>53</v>
@@ -4878,9 +4476,9 @@
       <c r="I70" s="11">
         <v>38567</v>
       </c>
-      <c r="J70" s="23"/>
-    </row>
-    <row r="71" spans="1:10" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
         <v>54</v>
@@ -4906,9 +4504,9 @@
       <c r="I71" s="11">
         <v>44188</v>
       </c>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="6">
         <v>55</v>
@@ -4938,7 +4536,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="6">
         <v>56</v>
@@ -4962,9 +4560,9 @@
       <c r="I73" s="11">
         <v>45034</v>
       </c>
-      <c r="J73" s="23"/>
-    </row>
-    <row r="74" spans="1:10" ht="196.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="6">
         <v>57</v>
@@ -4990,9 +4588,9 @@
       <c r="I74" s="11">
         <v>45020</v>
       </c>
-      <c r="J74" s="23"/>
-    </row>
-    <row r="75" spans="1:10" ht="138" x14ac:dyDescent="0.25">
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
         <v>58</v>
@@ -5016,9 +4614,9 @@
       <c r="I75" s="11">
         <v>45062</v>
       </c>
-      <c r="J75" s="23"/>
-    </row>
-    <row r="76" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
         <v>59</v>
@@ -5042,9 +4640,9 @@
       <c r="I76" s="11">
         <v>44966</v>
       </c>
-      <c r="J76" s="23"/>
-    </row>
-    <row r="77" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
         <v>60</v>
@@ -5070,9 +4668,9 @@
       <c r="I77" s="11">
         <v>44188</v>
       </c>
-      <c r="J77" s="23"/>
-    </row>
-    <row r="78" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
         <v>61</v>
@@ -5098,9 +4696,9 @@
       <c r="I78" s="11">
         <v>39218</v>
       </c>
-      <c r="J78" s="23"/>
-    </row>
-    <row r="79" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
         <v>62</v>
@@ -5124,9 +4722,9 @@
       <c r="I79" s="11">
         <v>42174</v>
       </c>
-      <c r="J79" s="23"/>
-    </row>
-    <row r="80" spans="1:10" ht="207" x14ac:dyDescent="0.25">
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
         <v>63</v>
@@ -5152,9 +4750,9 @@
       <c r="I80" s="11">
         <v>41975</v>
       </c>
-      <c r="J80" s="23"/>
-    </row>
-    <row r="81" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
         <v>64</v>
@@ -5180,9 +4778,9 @@
       <c r="I81" s="11">
         <v>42384</v>
       </c>
-      <c r="J81" s="23"/>
-    </row>
-    <row r="82" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6">
         <v>65</v>
@@ -5212,7 +4810,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="6">
         <v>66</v>
@@ -5242,7 +4840,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <v>67</v>
       </c>
@@ -5271,7 +4869,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="207" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <v>68</v>
       </c>
@@ -5296,9 +4894,9 @@
       <c r="I85" s="11">
         <v>44736</v>
       </c>
-      <c r="J85" s="23"/>
-    </row>
-    <row r="86" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>69</v>
       </c>
@@ -5321,9 +4919,9 @@
       <c r="I86" s="11">
         <v>45075</v>
       </c>
-      <c r="J86" s="23"/>
-    </row>
-    <row r="87" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <v>70</v>
       </c>
@@ -5348,9 +4946,9 @@
       <c r="I87" s="11">
         <v>45110</v>
       </c>
-      <c r="J87" s="23"/>
-    </row>
-    <row r="88" spans="1:10" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <v>71</v>
       </c>
@@ -5373,9 +4971,9 @@
       <c r="I88" s="11">
         <v>45121</v>
       </c>
-      <c r="J88" s="23"/>
-    </row>
-    <row r="89" spans="1:10" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <v>72</v>
       </c>
@@ -5398,9 +4996,9 @@
       <c r="I89" s="11">
         <v>39167</v>
       </c>
-      <c r="J89" s="23"/>
-    </row>
-    <row r="90" spans="1:10" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <v>73</v>
       </c>
@@ -5423,9 +5021,9 @@
       <c r="I90" s="11">
         <v>39196</v>
       </c>
-      <c r="J90" s="23"/>
-    </row>
-    <row r="91" spans="1:10" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <v>74</v>
       </c>
@@ -5450,9 +5048,9 @@
       <c r="I91" s="11">
         <v>39609</v>
       </c>
-      <c r="J91" s="23"/>
-    </row>
-    <row r="92" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <v>75</v>
       </c>
@@ -5477,9 +5075,9 @@
       <c r="I92" s="11">
         <v>35065</v>
       </c>
-      <c r="J92" s="23"/>
-    </row>
-    <row r="93" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <v>76</v>
       </c>
@@ -5504,9 +5102,9 @@
       <c r="I93" s="11">
         <v>35065</v>
       </c>
-      <c r="J93" s="23"/>
-    </row>
-    <row r="94" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <v>77</v>
       </c>
@@ -5531,9 +5129,9 @@
       <c r="I94" s="11">
         <v>35431</v>
       </c>
-      <c r="J94" s="23"/>
-    </row>
-    <row r="95" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
         <v>78</v>
       </c>
@@ -5556,9 +5154,9 @@
       <c r="I95" s="11">
         <v>36161</v>
       </c>
-      <c r="J95" s="23"/>
-    </row>
-    <row r="96" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>373</v>
       </c>
@@ -5584,9 +5182,9 @@
       <c r="I96" s="11">
         <v>36161</v>
       </c>
-      <c r="J96" s="23"/>
-    </row>
-    <row r="97" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <v>80</v>
       </c>
@@ -5609,9 +5207,9 @@
       <c r="I97" s="11">
         <v>36526</v>
       </c>
-      <c r="J97" s="23"/>
-    </row>
-    <row r="98" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <v>81</v>
       </c>
@@ -5634,9 +5232,9 @@
       <c r="I98" s="11">
         <v>39448</v>
       </c>
-      <c r="J98" s="23"/>
-    </row>
-    <row r="99" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <v>82</v>
       </c>
@@ -5659,9 +5257,9 @@
       <c r="I99" s="11">
         <v>36526</v>
       </c>
-      <c r="J99" s="23"/>
-    </row>
-    <row r="100" spans="2:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <v>83</v>
       </c>
@@ -5684,9 +5282,9 @@
       <c r="I100" s="11">
         <v>40909</v>
       </c>
-      <c r="J100" s="23"/>
-    </row>
-    <row r="101" spans="2:10" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="2:10" ht="180" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <v>84</v>
       </c>
@@ -5710,9 +5308,9 @@
       <c r="I101" s="11">
         <v>37622</v>
       </c>
-      <c r="J101" s="23"/>
-    </row>
-    <row r="102" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <v>85</v>
       </c>
@@ -5735,9 +5333,9 @@
       <c r="I102" s="11">
         <v>37987</v>
       </c>
-      <c r="J102" s="23"/>
-    </row>
-    <row r="103" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <v>86</v>
       </c>
@@ -5760,9 +5358,9 @@
       <c r="I103" s="11">
         <v>41275</v>
       </c>
-      <c r="J103" s="23"/>
-    </row>
-    <row r="104" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <v>87</v>
       </c>
@@ -5785,9 +5383,9 @@
       <c r="I104" s="11">
         <v>42005</v>
       </c>
-      <c r="J104" s="23"/>
-    </row>
-    <row r="105" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <v>88</v>
       </c>
@@ -5810,9 +5408,9 @@
       <c r="I105" s="11">
         <v>42005</v>
       </c>
-      <c r="J105" s="23"/>
-    </row>
-    <row r="106" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <v>89</v>
       </c>
@@ -5835,9 +5433,9 @@
       <c r="I106" s="11">
         <v>42005</v>
       </c>
-      <c r="J106" s="23"/>
-    </row>
-    <row r="107" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <v>90</v>
       </c>
@@ -5860,9 +5458,9 @@
       <c r="I107" s="11">
         <v>42005</v>
       </c>
-      <c r="J107" s="23"/>
-    </row>
-    <row r="108" spans="2:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <v>91</v>
       </c>
@@ -5885,9 +5483,9 @@
       <c r="I108" s="11">
         <v>36892</v>
       </c>
-      <c r="J108" s="23"/>
-    </row>
-    <row r="109" spans="2:10" ht="138" x14ac:dyDescent="0.25">
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="2:10" ht="165" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <v>92</v>
       </c>
@@ -5911,9 +5509,9 @@
       <c r="I109" s="11">
         <v>36892</v>
       </c>
-      <c r="J109" s="23"/>
-    </row>
-    <row r="110" spans="2:10" ht="138" x14ac:dyDescent="0.25">
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="2:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <v>93</v>
       </c>
@@ -5937,9 +5535,9 @@
       <c r="I110" s="11">
         <v>36892</v>
       </c>
-      <c r="J110" s="23"/>
-    </row>
-    <row r="111" spans="2:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <v>94</v>
       </c>
@@ -5962,9 +5560,9 @@
       <c r="I111" s="11">
         <v>36892</v>
       </c>
-      <c r="J111" s="23"/>
-    </row>
-    <row r="112" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
         <v>95</v>
       </c>
@@ -5987,9 +5585,9 @@
       <c r="I112" s="11">
         <v>36892</v>
       </c>
-      <c r="J112" s="23"/>
-    </row>
-    <row r="113" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
         <v>96</v>
       </c>
@@ -6012,9 +5610,9 @@
       <c r="I113" s="11">
         <v>36892</v>
       </c>
-      <c r="J113" s="23"/>
-    </row>
-    <row r="114" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
         <v>97</v>
       </c>
@@ -6037,9 +5635,9 @@
       <c r="I114" s="11">
         <v>42005</v>
       </c>
-      <c r="J114" s="23"/>
-    </row>
-    <row r="115" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
         <v>98</v>
       </c>
@@ -6062,9 +5660,9 @@
       <c r="I115" s="11">
         <v>42005</v>
       </c>
-      <c r="J115" s="23"/>
-    </row>
-    <row r="116" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <v>99</v>
       </c>
@@ -6087,9 +5685,9 @@
       <c r="I116" s="11">
         <v>42005</v>
       </c>
-      <c r="J116" s="23"/>
-    </row>
-    <row r="117" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
         <v>100</v>
       </c>
@@ -6112,9 +5710,9 @@
       <c r="I117" s="11">
         <v>42005</v>
       </c>
-      <c r="J117" s="23"/>
-    </row>
-    <row r="118" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>420</v>
       </c>
@@ -6141,9 +5739,9 @@
       <c r="I118" s="11">
         <v>45292</v>
       </c>
-      <c r="J118" s="23"/>
-    </row>
-    <row r="119" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <v>102</v>
       </c>
@@ -6167,9 +5765,9 @@
       <c r="I119" s="11">
         <v>45292</v>
       </c>
-      <c r="J119" s="23"/>
-    </row>
-    <row r="120" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <v>103</v>
       </c>
@@ -6193,9 +5791,9 @@
       <c r="I120" s="11">
         <v>45292</v>
       </c>
-      <c r="J120" s="23"/>
-    </row>
-    <row r="121" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J120" s="10"/>
+    </row>
+    <row r="121" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <v>104</v>
       </c>
@@ -6218,9 +5816,9 @@
       <c r="I121" s="11">
         <v>42005</v>
       </c>
-      <c r="J121" s="23"/>
-    </row>
-    <row r="122" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <v>105</v>
       </c>
@@ -6243,9 +5841,9 @@
       <c r="I122" s="11">
         <v>42005</v>
       </c>
-      <c r="J122" s="23"/>
-    </row>
-    <row r="123" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
         <v>106</v>
       </c>
@@ -6268,9 +5866,9 @@
       <c r="I123" s="11">
         <v>42005</v>
       </c>
-      <c r="J123" s="23"/>
-    </row>
-    <row r="124" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
         <v>107</v>
       </c>
@@ -6293,9 +5891,9 @@
       <c r="I124" s="11">
         <v>36161</v>
       </c>
-      <c r="J124" s="23"/>
-    </row>
-    <row r="125" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
         <v>108</v>
       </c>
@@ -6318,9 +5916,9 @@
       <c r="I125" s="11">
         <v>36161</v>
       </c>
-      <c r="J125" s="23"/>
-    </row>
-    <row r="126" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
         <v>109</v>
       </c>
@@ -6343,9 +5941,9 @@
       <c r="I126" s="11">
         <v>36161</v>
       </c>
-      <c r="J126" s="23"/>
-    </row>
-    <row r="127" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
         <v>110</v>
       </c>
@@ -6368,9 +5966,9 @@
       <c r="I127" s="11">
         <v>37257</v>
       </c>
-      <c r="J127" s="23"/>
-    </row>
-    <row r="128" spans="1:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
         <v>111</v>
       </c>
@@ -6393,9 +5991,9 @@
       <c r="I128" s="11">
         <v>37622</v>
       </c>
-      <c r="J128" s="23"/>
-    </row>
-    <row r="129" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
         <v>112</v>
       </c>
@@ -6418,9 +6016,9 @@
       <c r="I129" s="11">
         <v>42005</v>
       </c>
-      <c r="J129" s="23"/>
-    </row>
-    <row r="130" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J129" s="10"/>
+    </row>
+    <row r="130" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
         <v>113</v>
       </c>
@@ -6443,9 +6041,9 @@
       <c r="I130" s="11">
         <v>40544</v>
       </c>
-      <c r="J130" s="23"/>
-    </row>
-    <row r="131" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
         <v>114</v>
       </c>
@@ -6469,9 +6067,9 @@
       <c r="I131" s="11">
         <v>44197</v>
       </c>
-      <c r="J131" s="23"/>
-    </row>
-    <row r="132" spans="2:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
         <v>115</v>
       </c>
@@ -6494,9 +6092,9 @@
       <c r="I132" s="11">
         <v>36161</v>
       </c>
-      <c r="J132" s="23"/>
-    </row>
-    <row r="133" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
         <v>116</v>
       </c>
@@ -6519,9 +6117,9 @@
       <c r="I133" s="11">
         <v>39814</v>
       </c>
-      <c r="J133" s="23"/>
-    </row>
-    <row r="134" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
         <v>117</v>
       </c>
@@ -6544,9 +6142,9 @@
       <c r="I134" s="11">
         <v>39814</v>
       </c>
-      <c r="J134" s="23"/>
-    </row>
-    <row r="135" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
         <v>118</v>
       </c>
@@ -6569,9 +6167,9 @@
       <c r="I135" s="11">
         <v>40909</v>
       </c>
-      <c r="J135" s="23"/>
-    </row>
-    <row r="136" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
         <v>119</v>
       </c>
@@ -6594,9 +6192,9 @@
       <c r="I136" s="11">
         <v>42005</v>
       </c>
-      <c r="J136" s="23"/>
-    </row>
-    <row r="137" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
         <v>120</v>
       </c>
@@ -6617,9 +6215,9 @@
       <c r="I137" s="11">
         <v>36526</v>
       </c>
-      <c r="J137" s="23"/>
-    </row>
-    <row r="138" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
         <v>121</v>
       </c>
@@ -6642,9 +6240,9 @@
       <c r="I138" s="11">
         <v>42370</v>
       </c>
-      <c r="J138" s="23"/>
-    </row>
-    <row r="139" spans="2:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="2:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
         <v>122</v>
       </c>
@@ -6668,9 +6266,9 @@
       <c r="I139" s="11">
         <v>44197</v>
       </c>
-      <c r="J139" s="23"/>
-    </row>
-    <row r="140" spans="2:10" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" spans="2:10" ht="180" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
         <v>123</v>
       </c>
@@ -6694,9 +6292,9 @@
       <c r="I140" s="11">
         <v>36526</v>
       </c>
-      <c r="J140" s="23"/>
-    </row>
-    <row r="141" spans="2:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
         <v>124</v>
       </c>
@@ -6720,9 +6318,9 @@
       <c r="I141" s="11">
         <v>44197</v>
       </c>
-      <c r="J141" s="23"/>
-    </row>
-    <row r="142" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
         <v>125</v>
       </c>
@@ -6746,9 +6344,9 @@
       <c r="I142" s="11">
         <v>45292</v>
       </c>
-      <c r="J142" s="23"/>
-    </row>
-    <row r="143" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
         <v>126</v>
       </c>
@@ -6772,9 +6370,9 @@
       <c r="I143" s="11">
         <v>45292</v>
       </c>
-      <c r="J143" s="23"/>
-    </row>
-    <row r="144" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
         <v>127</v>
       </c>
@@ -6798,9 +6396,9 @@
       <c r="I144" s="11">
         <v>45292</v>
       </c>
-      <c r="J144" s="23"/>
-    </row>
-    <row r="145" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
         <v>128</v>
       </c>
@@ -6823,9 +6421,9 @@
       <c r="I145" s="11">
         <v>36161</v>
       </c>
-      <c r="J145" s="23"/>
-    </row>
-    <row r="146" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
         <v>129</v>
       </c>
@@ -6848,9 +6446,9 @@
       <c r="I146" s="11">
         <v>44927</v>
       </c>
-      <c r="J146" s="23"/>
-    </row>
-    <row r="147" spans="2:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J146" s="10"/>
+    </row>
+    <row r="147" spans="2:10" ht="165" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
         <v>130</v>
       </c>
@@ -6874,9 +6472,9 @@
       <c r="I147" s="11">
         <v>36892</v>
       </c>
-      <c r="J147" s="23"/>
-    </row>
-    <row r="148" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
         <v>131</v>
       </c>
@@ -6899,9 +6497,9 @@
       <c r="I148" s="11">
         <v>36526</v>
       </c>
-      <c r="J148" s="23"/>
-    </row>
-    <row r="149" spans="2:10" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" spans="2:10" ht="195" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
         <v>132</v>
       </c>
@@ -6924,9 +6522,9 @@
       <c r="I149" s="11">
         <v>34700</v>
       </c>
-      <c r="J149" s="23"/>
-    </row>
-    <row r="150" spans="2:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" spans="2:10" ht="165" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
         <v>133</v>
       </c>
@@ -6949,9 +6547,9 @@
       <c r="I150" s="11">
         <v>34700</v>
       </c>
-      <c r="J150" s="23"/>
-    </row>
-    <row r="151" spans="2:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J150" s="10"/>
+    </row>
+    <row r="151" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
         <v>134</v>
       </c>
@@ -6974,9 +6572,9 @@
       <c r="I151" s="11">
         <v>45467</v>
       </c>
-      <c r="J151" s="23"/>
-    </row>
-    <row r="152" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J151" s="10"/>
+    </row>
+    <row r="152" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
         <v>135</v>
       </c>
@@ -7023,7 +6621,7 @@
       <c r="I153" s="11">
         <v>43466</v>
       </c>
-      <c r="J153" s="23" t="s">
+      <c r="J153" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7047,7 +6645,7 @@
       <c r="I154" s="11">
         <v>43466</v>
       </c>
-      <c r="J154" s="23" t="s">
+      <c r="J154" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7071,7 +6669,7 @@
       <c r="I155" s="11">
         <v>42736</v>
       </c>
-      <c r="J155" s="23" t="s">
+      <c r="J155" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7095,7 +6693,7 @@
       <c r="I156" s="11">
         <v>42736</v>
       </c>
-      <c r="J156" s="23" t="s">
+      <c r="J156" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7119,7 +6717,7 @@
       <c r="I157" s="11">
         <v>43466</v>
       </c>
-      <c r="J157" s="23" t="s">
+      <c r="J157" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7143,7 +6741,7 @@
       <c r="I158" s="11">
         <v>43466</v>
       </c>
-      <c r="J158" s="23" t="s">
+      <c r="J158" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7167,7 +6765,7 @@
       <c r="I159" s="11">
         <v>44197</v>
       </c>
-      <c r="J159" s="23" t="s">
+      <c r="J159" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7191,7 +6789,7 @@
       <c r="I160" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="J160" s="23" t="s">
+      <c r="J160" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7218,7 +6816,7 @@
       <c r="I161" s="11">
         <v>40179</v>
       </c>
-      <c r="J161" s="23" t="s">
+      <c r="J161" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7242,7 +6840,7 @@
       <c r="I162" s="11">
         <v>41640</v>
       </c>
-      <c r="J162" s="23" t="s">
+      <c r="J162" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7266,7 +6864,7 @@
       <c r="I163" s="11">
         <v>42005</v>
       </c>
-      <c r="J163" s="23" t="s">
+      <c r="J163" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7290,7 +6888,7 @@
       <c r="I164" s="11">
         <v>42005</v>
       </c>
-      <c r="J164" s="23" t="s">
+      <c r="J164" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7317,7 +6915,7 @@
       <c r="I165" s="11">
         <v>36526</v>
       </c>
-      <c r="J165" s="23" t="s">
+      <c r="J165" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7344,7 +6942,7 @@
       <c r="I166" s="11">
         <v>36526</v>
       </c>
-      <c r="J166" s="23" t="s">
+      <c r="J166" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7371,7 +6969,7 @@
       <c r="I167" s="11">
         <v>36892</v>
       </c>
-      <c r="J167" s="23" t="s">
+      <c r="J167" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7398,7 +6996,7 @@
       <c r="I168" s="11">
         <v>36892</v>
       </c>
-      <c r="J168" s="23" t="s">
+      <c r="J168" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7425,7 +7023,7 @@
       <c r="I169" s="11">
         <v>37257</v>
       </c>
-      <c r="J169" s="23" t="s">
+      <c r="J169" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7452,7 +7050,7 @@
       <c r="I170" s="11">
         <v>37257</v>
       </c>
-      <c r="J170" s="23" t="s">
+      <c r="J170" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7479,7 +7077,7 @@
       <c r="I171" s="11">
         <v>37622</v>
       </c>
-      <c r="J171" s="23" t="s">
+      <c r="J171" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7506,7 +7104,7 @@
       <c r="I172" s="11">
         <v>37987</v>
       </c>
-      <c r="J172" s="23" t="s">
+      <c r="J172" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7533,7 +7131,7 @@
       <c r="I173" s="11">
         <v>38353</v>
       </c>
-      <c r="J173" s="23" t="s">
+      <c r="J173" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7557,7 +7155,7 @@
       <c r="I174" s="11">
         <v>38718</v>
       </c>
-      <c r="J174" s="23" t="s">
+      <c r="J174" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7581,7 +7179,7 @@
       <c r="I175" s="11">
         <v>42005</v>
       </c>
-      <c r="J175" s="23" t="s">
+      <c r="J175" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7608,7 +7206,7 @@
       <c r="I176" s="11">
         <v>44562</v>
       </c>
-      <c r="J176" s="23" t="s">
+      <c r="J176" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7632,7 +7230,7 @@
       <c r="I177" s="11">
         <v>44197</v>
       </c>
-      <c r="J177" s="23" t="s">
+      <c r="J177" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7659,7 +7257,7 @@
       <c r="I178" s="11">
         <v>37257</v>
       </c>
-      <c r="J178" s="23" t="s">
+      <c r="J178" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7686,7 +7284,7 @@
       <c r="I179" s="11">
         <v>37257</v>
       </c>
-      <c r="J179" s="23" t="s">
+      <c r="J179" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7713,7 +7311,7 @@
       <c r="I180" s="11">
         <v>39083</v>
       </c>
-      <c r="J180" s="23" t="s">
+      <c r="J180" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7737,7 +7335,7 @@
       <c r="I181" s="11">
         <v>39448</v>
       </c>
-      <c r="J181" s="23" t="s">
+      <c r="J181" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7761,7 +7359,7 @@
       <c r="I182" s="11">
         <v>42005</v>
       </c>
-      <c r="J182" s="23" t="s">
+      <c r="J182" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7785,7 +7383,7 @@
       <c r="I183" s="11">
         <v>44197</v>
       </c>
-      <c r="J183" s="23" t="s">
+      <c r="J183" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7809,7 +7407,7 @@
       <c r="I184" s="11">
         <v>44562</v>
       </c>
-      <c r="J184" s="23" t="s">
+      <c r="J184" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7833,7 +7431,7 @@
       <c r="I185" s="11">
         <v>44197</v>
       </c>
-      <c r="J185" s="23" t="s">
+      <c r="J185" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7857,7 +7455,7 @@
       <c r="I186" s="11">
         <v>44197</v>
       </c>
-      <c r="J186" s="23" t="s">
+      <c r="J186" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7881,7 +7479,7 @@
       <c r="I187" s="11">
         <v>44197</v>
       </c>
-      <c r="J187" s="23" t="s">
+      <c r="J187" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7905,7 +7503,7 @@
       <c r="I188" s="11">
         <v>44197</v>
       </c>
-      <c r="J188" s="23" t="s">
+      <c r="J188" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -7929,11 +7527,11 @@
       <c r="I189" s="11">
         <v>44197</v>
       </c>
-      <c r="J189" s="23" t="s">
+      <c r="J189" s="10" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="138" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B190" s="6">
         <v>173</v>
       </c>
@@ -7956,9 +7554,9 @@
       <c r="I190" s="11">
         <v>45549</v>
       </c>
-      <c r="J190" s="23"/>
-    </row>
-    <row r="191" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J190" s="10"/>
+    </row>
+    <row r="191" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B191" s="6">
         <v>174</v>
       </c>
@@ -7983,9 +7581,9 @@
       <c r="I191" s="14">
         <v>42298</v>
       </c>
-      <c r="J191" s="23"/>
-    </row>
-    <row r="192" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J191" s="10"/>
+    </row>
+    <row r="192" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
         <v>175</v>
       </c>
@@ -8010,9 +7608,9 @@
       <c r="I192" s="14">
         <v>45687</v>
       </c>
-      <c r="J192" s="23"/>
-    </row>
-    <row r="193" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="J192" s="10"/>
+    </row>
+    <row r="193" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B193" s="6">
         <v>176</v>
       </c>
@@ -8039,7 +7637,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="194" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
         <v>177</v>
       </c>
@@ -8060,9 +7658,9 @@
       <c r="I194" s="14">
         <v>45709</v>
       </c>
-      <c r="J194" s="23"/>
-    </row>
-    <row r="195" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J194" s="10"/>
+    </row>
+    <row r="195" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
         <v>178</v>
       </c>
@@ -8085,9 +7683,9 @@
       <c r="I195" s="14">
         <v>45699</v>
       </c>
-      <c r="J195" s="23"/>
-    </row>
-    <row r="196" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J195" s="10"/>
+    </row>
+    <row r="196" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
         <v>179</v>
       </c>
@@ -8110,9 +7708,9 @@
       <c r="I196" s="14">
         <v>45645</v>
       </c>
-      <c r="J196" s="23"/>
-    </row>
-    <row r="197" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="J196" s="10"/>
+    </row>
+    <row r="197" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
         <v>180</v>
       </c>
@@ -8133,10 +7731,10 @@
         <v>256</v>
       </c>
       <c r="I197" s="15"/>
-      <c r="J197" s="23"/>
-    </row>
-    <row r="198" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B198" s="21">
+      <c r="J197" s="10"/>
+    </row>
+    <row r="198" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B198" s="6">
         <v>181</v>
       </c>
       <c r="C198" s="7" t="s">
@@ -8162,8 +7760,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="199" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B199" s="21">
+    <row r="199" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B199" s="6">
         <v>182</v>
       </c>
       <c r="C199" s="7" t="s">
@@ -8189,8 +7787,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="200" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B200" s="21">
+    <row r="200" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B200" s="6">
         <v>183</v>
       </c>
       <c r="C200" s="7" t="s">
@@ -8212,10 +7810,10 @@
       <c r="I200" s="14">
         <v>45826</v>
       </c>
-      <c r="J200" s="23"/>
-    </row>
-    <row r="201" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B201" s="21">
+      <c r="J200" s="10"/>
+    </row>
+    <row r="201" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B201" s="6">
         <v>184</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -8237,10 +7835,10 @@
       <c r="I201" s="14">
         <v>45838</v>
       </c>
-      <c r="J201" s="23"/>
-    </row>
-    <row r="202" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B202" s="21">
+      <c r="J201" s="10"/>
+    </row>
+    <row r="202" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B202" s="6">
         <v>185</v>
       </c>
       <c r="C202" s="7" t="s">
@@ -8262,10 +7860,10 @@
       <c r="I202" s="14">
         <v>45840</v>
       </c>
-      <c r="J202" s="23"/>
-    </row>
-    <row r="203" spans="2:10" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="B203" s="21">
+      <c r="J202" s="10"/>
+    </row>
+    <row r="203" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B203" s="6">
         <v>186</v>
       </c>
       <c r="C203" s="7" t="s">
@@ -8289,10 +7887,10 @@
       <c r="I203" s="14">
         <v>45826</v>
       </c>
-      <c r="J203" s="23"/>
-    </row>
-    <row r="204" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B204" s="21">
+      <c r="J203" s="10"/>
+    </row>
+    <row r="204" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B204" s="6">
         <v>187</v>
       </c>
       <c r="C204" s="7" t="s">
@@ -8314,10 +7912,10 @@
       <c r="I204" s="14">
         <v>45938</v>
       </c>
-      <c r="J204" s="23"/>
-    </row>
-    <row r="205" spans="2:10" ht="193.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="21">
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="B205" s="6">
         <v>188</v>
       </c>
       <c r="C205" s="7" t="s">
@@ -8339,10 +7937,10 @@
       <c r="I205" s="14">
         <v>45951</v>
       </c>
-      <c r="J205" s="23"/>
-    </row>
-    <row r="206" spans="2:10" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="B206" s="21">
+      <c r="J205" s="10"/>
+    </row>
+    <row r="206" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B206" s="6">
         <v>189</v>
       </c>
       <c r="C206" s="7" t="s">
@@ -8364,121 +7962,121 @@
       <c r="I206" s="14">
         <v>45952</v>
       </c>
-      <c r="J206" s="23"/>
-    </row>
-    <row r="207" spans="2:10" ht="234.6" x14ac:dyDescent="0.25">
-      <c r="B207" s="21">
+      <c r="J206" s="10"/>
+    </row>
+    <row r="207" spans="2:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="B207" s="6">
         <v>190</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D207" s="21" t="s">
+      <c r="D207" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="E207" s="21" t="s">
+      <c r="E207" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="F207" s="21" t="s">
+      <c r="F207" s="6" t="s">
         <v>208</v>
       </c>
       <c r="G207" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H207" s="21"/>
-      <c r="I207" s="24">
+      <c r="H207" s="6"/>
+      <c r="I207" s="11">
         <v>45994</v>
       </c>
       <c r="J207" s="6" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="208" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B208" s="21">
+    <row r="208" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B208" s="6">
         <v>191</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D208" s="22" t="s">
+      <c r="D208" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E208" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F208" s="21" t="s">
+      <c r="F208" s="6" t="s">
         <v>208</v>
       </c>
       <c r="G208" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H208" s="22"/>
-      <c r="I208" s="24">
+      <c r="H208" s="7"/>
+      <c r="I208" s="11">
         <v>45999</v>
       </c>
-      <c r="J208" s="23"/>
-    </row>
-    <row r="209" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B209" s="21">
+      <c r="J208" s="10"/>
+    </row>
+    <row r="209" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B209" s="6">
         <v>192</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D209" s="22" t="s">
+      <c r="D209" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="E209" s="22" t="s">
+      <c r="E209" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F209" s="21" t="s">
+      <c r="F209" s="6" t="s">
         <v>208</v>
       </c>
       <c r="G209" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H209" s="22"/>
-      <c r="I209" s="24">
+      <c r="H209" s="7"/>
+      <c r="I209" s="11">
         <v>45999</v>
       </c>
-      <c r="J209" s="23"/>
-    </row>
-    <row r="210" spans="2:10" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="21">
+      <c r="J209" s="10"/>
+    </row>
+    <row r="210" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B210" s="6">
         <v>193</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D210" s="22" t="s">
+      <c r="D210" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E210" s="22" t="s">
+      <c r="E210" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F210" s="21" t="s">
+      <c r="F210" s="6" t="s">
         <v>208</v>
       </c>
       <c r="G210" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H210" s="22"/>
-      <c r="I210" s="24">
+      <c r="H210" s="7"/>
+      <c r="I210" s="11">
         <v>46008</v>
       </c>
-      <c r="J210" s="23"/>
-    </row>
-    <row r="211" spans="2:10" ht="138" x14ac:dyDescent="0.25">
-      <c r="B211" s="21">
+      <c r="J210" s="10"/>
+    </row>
+    <row r="211" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B211" s="6">
         <v>194</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="D211" s="22" t="s">
+      <c r="D211" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E211" s="22" t="s">
+      <c r="E211" s="7" t="s">
         <v>494</v>
       </c>
       <c r="F211" s="7" t="s">
@@ -8487,23 +8085,23 @@
       <c r="G211" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H211" s="22"/>
-      <c r="I211" s="26">
+      <c r="H211" s="7"/>
+      <c r="I211" s="14">
         <v>45966</v>
       </c>
-      <c r="J211" s="23"/>
-    </row>
-    <row r="212" spans="2:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B212" s="21">
+      <c r="J211" s="10"/>
+    </row>
+    <row r="212" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B212" s="6">
         <v>195</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="D212" s="22" t="s">
+      <c r="D212" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="E212" s="22" t="s">
+      <c r="E212" s="7" t="s">
         <v>499</v>
       </c>
       <c r="F212" s="7" t="s">
@@ -8512,199 +8110,226 @@
       <c r="G212" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H212" s="22"/>
-      <c r="I212" s="26">
+      <c r="H212" s="7"/>
+      <c r="I212" s="14">
         <v>45994</v>
       </c>
-      <c r="J212" s="23"/>
-    </row>
-    <row r="213" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B213" s="21">
+      <c r="J212" s="10"/>
+    </row>
+    <row r="213" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B213" s="6">
         <v>196</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C213" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D213" s="22" t="s">
+      <c r="D213" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="E213" s="22" t="s">
+      <c r="E213" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F213" s="22" t="s">
+      <c r="F213" s="7" t="s">
         <v>512</v>
       </c>
       <c r="G213" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H213" s="22"/>
-      <c r="I213" s="26">
+      <c r="H213" s="7"/>
+      <c r="I213" s="14">
         <v>43006</v>
       </c>
-      <c r="J213" s="25" t="s">
+      <c r="J213" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="214" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B214" s="21">
+    <row r="214" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B214" s="6">
         <v>197</v>
       </c>
-      <c r="C214" s="22" t="s">
+      <c r="C214" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="D214" s="22" t="s">
+      <c r="D214" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="E214" s="22" t="s">
+      <c r="E214" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F214" s="22" t="s">
+      <c r="F214" s="7" t="s">
         <v>512</v>
       </c>
       <c r="G214" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H214" s="22"/>
-      <c r="I214" s="26">
+      <c r="H214" s="7"/>
+      <c r="I214" s="14">
         <v>43262</v>
       </c>
-      <c r="J214" s="25" t="s">
+      <c r="J214" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="215" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B215" s="21">
+    <row r="215" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B215" s="6">
         <v>198</v>
       </c>
-      <c r="C215" s="22" t="s">
+      <c r="C215" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D215" s="22" t="s">
+      <c r="D215" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E215" s="22" t="s">
+      <c r="E215" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="F215" s="22" t="s">
+      <c r="F215" s="7" t="s">
         <v>512</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H215" s="22"/>
-      <c r="I215" s="26">
+      <c r="H215" s="7"/>
+      <c r="I215" s="14">
         <v>44335</v>
       </c>
-      <c r="J215" s="25" t="s">
+      <c r="J215" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="216" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B216" s="21">
+    <row r="216" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B216" s="6">
         <v>199</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D216" s="22" t="s">
+      <c r="D216" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="E216" s="22" t="s">
+      <c r="E216" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F216" s="22" t="s">
+      <c r="F216" s="7" t="s">
         <v>512</v>
       </c>
       <c r="G216" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H216" s="22"/>
-      <c r="I216" s="26">
+      <c r="H216" s="7"/>
+      <c r="I216" s="14">
         <v>44212</v>
       </c>
-      <c r="J216" s="25" t="s">
+      <c r="J216" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="217" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B217" s="21">
+    <row r="217" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B217" s="6">
         <v>200</v>
       </c>
-      <c r="C217" s="22" t="s">
+      <c r="C217" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D217" s="22" t="s">
+      <c r="D217" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E217" s="22" t="s">
+      <c r="E217" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F217" s="22" t="s">
+      <c r="F217" s="7" t="s">
         <v>512</v>
       </c>
       <c r="G217" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H217" s="22"/>
-      <c r="I217" s="26">
+      <c r="H217" s="7"/>
+      <c r="I217" s="14">
         <v>44785</v>
       </c>
-      <c r="J217" s="25" t="s">
+      <c r="J217" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="218" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B218" s="21">
+    <row r="218" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B218" s="6">
         <v>201</v>
       </c>
-      <c r="C218" s="22" t="s">
+      <c r="C218" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D218" s="22" t="s">
+      <c r="D218" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E218" s="22" t="s">
+      <c r="E218" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F218" s="22" t="s">
+      <c r="F218" s="7" t="s">
         <v>512</v>
       </c>
       <c r="G218" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H218" s="22"/>
-      <c r="I218" s="26">
+      <c r="H218" s="7"/>
+      <c r="I218" s="14">
         <v>43648</v>
       </c>
-      <c r="J218" s="25" t="s">
+      <c r="J218" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="219" spans="2:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B219" s="21">
+    <row r="219" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B219" s="6">
         <v>202</v>
       </c>
-      <c r="C219" s="22" t="s">
+      <c r="C219" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D219" s="22" t="s">
+      <c r="D219" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E219" s="22" t="s">
+      <c r="E219" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F219" s="22" t="s">
+      <c r="F219" s="7" t="s">
         <v>512</v>
       </c>
       <c r="G219" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H219" s="22"/>
-      <c r="I219" s="26">
+      <c r="H219" s="7"/>
+      <c r="I219" s="14">
         <v>45894</v>
       </c>
-      <c r="J219" s="25" t="s">
+      <c r="J219" s="15" t="s">
         <v>522</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B220" s="21">
+        <v>203</v>
+      </c>
+      <c r="C220" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="D220" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E220" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G220" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" s="21"/>
+      <c r="I220" s="23">
+        <v>45471</v>
+      </c>
+      <c r="J220" s="22" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -8714,31 +8339,31 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:G219">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+  <conditionalFormatting sqref="G18:G220">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12 H14:H15">
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8755,19 +8380,19 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
@@ -8793,7 +8418,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -8815,7 +8440,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -8837,7 +8462,7 @@
         <v>45674</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -8859,7 +8484,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="150" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -8881,7 +8506,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -8903,7 +8528,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -8927,7 +8552,7 @@
         <v>43350</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -8951,7 +8576,7 @@
         <v>42965</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -8977,16 +8602,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E99736-C1CC-40CC-843D-F2904ADE5F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375D45D-75C4-4A7A-AE7B-40C2CCEBE6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="534">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1537,9 +1537,6 @@
     <t>Постанова Кабінету Міністрів України від 22.10.2025 № 1335 "Про затвердження Порядку формування та ведення відкритого переліку забороненого до використання програмного забезпечення та комунікаційного (мережевого) обладнання"</t>
   </si>
   <si>
-    <t>Про порядок формування переліку забороненого до використання ПЗ</t>
-  </si>
-  <si>
     <t>Постанова Кабінету Міністрів України від 12.12.2018 № 1062 "Про затвердження Основних засад функціонування внутрішнього контролю у розпорядників бюджетних коштів та внесення змін до постанови Кабінету Міністрів України від 28 вересня 2011 р. № 1001"</t>
   </si>
   <si>
@@ -1691,6 +1688,21 @@
   </si>
   <si>
     <t>Вимога надавачам електронних довірчих послуг, серед іншого, відповідати вимогам ДСТУ ISO/IEC 27001:2023</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1799-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 31.12.2025 № 1799 "Про затвердження Порядку оцінювання стану кіберзахисту інформаційних, електронних комунікаційних та інформаційно-комунікаційних систем, об’єктів критичної інфраструктури, об’єктів критичної інформаційної інфраструктури"</t>
+  </si>
+  <si>
+    <t>Порядок оцінювання стану кіберзахисту інформаційних, електронних комунікаційних та інформаційно-комунікаційних систем, об’єктів критичної інфраструктури, об’єктів критичної інформаційної інфраструктури</t>
+  </si>
+  <si>
+    <t>Про порядок формування переліку забороненого до використання ПЗ. Сам перелік:
+1. У вигляді Гугл таблиці: https://docs.google.com/spreadsheets/d/15hYIIZDt6F4W590Ja7rAVKe7FnrrDB8Fyl2HitdU1R0/edit?usp=sharing
+2. На сайті ДССЗЗІ: 
+https://cip.gov.ua/ua/statics/perelik-zaboronenogo-do-vikoristannya-programnogo-zabezpechennya-ta-komunikaciinogo-merezhevogo-obladnannya</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1881,52 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2497,21 +2554,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:J220" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
-  <autoFilter ref="B17:J220" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:J221" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+  <autoFilter ref="B17:J221" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I200">
     <sortCondition ref="B17:B200"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{2B27F073-AE91-4210-B0D6-642DEFE05F63}" name="Галузь" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{2B27F073-AE91-4210-B0D6-642DEFE05F63}" name="Галузь" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2814,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:J220"/>
+  <dimension ref="A2:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3098,7 @@
         <v>436</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3067,7 +3124,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -3571,7 +3628,7 @@
         <v>44516</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3655,7 +3712,7 @@
         <v>43013</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3919,7 +3976,7 @@
         <v>43635</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -3949,7 +4006,7 @@
         <v>44113</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3979,7 +4036,7 @@
         <v>44113</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -4009,7 +4066,7 @@
         <v>44146</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -4533,7 +4590,7 @@
         <v>45044</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="345" x14ac:dyDescent="0.25">
@@ -4807,7 +4864,7 @@
         <v>44211</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="255" x14ac:dyDescent="0.25">
@@ -4837,7 +4894,7 @@
         <v>44449</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -4866,7 +4923,7 @@
         <v>44475</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="225" x14ac:dyDescent="0.25">
@@ -6598,7 +6655,7 @@
         <v>45412</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
@@ -6622,7 +6679,7 @@
         <v>43466</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
@@ -6646,7 +6703,7 @@
         <v>43466</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
@@ -6670,7 +6727,7 @@
         <v>42736</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
@@ -6694,7 +6751,7 @@
         <v>42736</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
@@ -6718,7 +6775,7 @@
         <v>43466</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
@@ -6742,7 +6799,7 @@
         <v>43466</v>
       </c>
       <c r="J158" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
@@ -6766,7 +6823,7 @@
         <v>44197</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
@@ -6790,7 +6847,7 @@
         <v>421</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
@@ -6817,7 +6874,7 @@
         <v>40179</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
@@ -6841,7 +6898,7 @@
         <v>41640</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
@@ -6865,7 +6922,7 @@
         <v>42005</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
@@ -6889,7 +6946,7 @@
         <v>42005</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
@@ -6916,7 +6973,7 @@
         <v>36526</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
@@ -6943,7 +7000,7 @@
         <v>36526</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
@@ -6970,7 +7027,7 @@
         <v>36892</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
@@ -6997,7 +7054,7 @@
         <v>36892</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
@@ -7024,7 +7081,7 @@
         <v>37257</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
@@ -7051,7 +7108,7 @@
         <v>37257</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
@@ -7078,7 +7135,7 @@
         <v>37622</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
@@ -7105,7 +7162,7 @@
         <v>37987</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
@@ -7132,7 +7189,7 @@
         <v>38353</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
@@ -7156,7 +7213,7 @@
         <v>38718</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
@@ -7180,7 +7237,7 @@
         <v>42005</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
@@ -7207,7 +7264,7 @@
         <v>44562</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
@@ -7231,7 +7288,7 @@
         <v>44197</v>
       </c>
       <c r="J177" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
@@ -7258,7 +7315,7 @@
         <v>37257</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
@@ -7285,7 +7342,7 @@
         <v>37257</v>
       </c>
       <c r="J179" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
@@ -7312,7 +7369,7 @@
         <v>39083</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
@@ -7336,7 +7393,7 @@
         <v>39448</v>
       </c>
       <c r="J181" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
@@ -7360,7 +7417,7 @@
         <v>42005</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
@@ -7384,7 +7441,7 @@
         <v>44197</v>
       </c>
       <c r="J183" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
@@ -7408,7 +7465,7 @@
         <v>44562</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
@@ -7432,7 +7489,7 @@
         <v>44197</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
@@ -7456,7 +7513,7 @@
         <v>44197</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
@@ -7480,7 +7537,7 @@
         <v>44197</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
@@ -7504,7 +7561,7 @@
         <v>44197</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
@@ -7528,7 +7585,7 @@
         <v>44197</v>
       </c>
       <c r="J189" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="2:10" ht="150" x14ac:dyDescent="0.25">
@@ -7634,7 +7691,7 @@
         <v>45623</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="194" spans="2:10" ht="90" x14ac:dyDescent="0.25">
@@ -7757,7 +7814,7 @@
         <v>45671</v>
       </c>
       <c r="J198" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="199" spans="2:10" ht="120" x14ac:dyDescent="0.25">
@@ -7784,7 +7841,7 @@
         <v>45743</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="2:10" ht="105" x14ac:dyDescent="0.25">
@@ -7939,7 +7996,7 @@
       </c>
       <c r="J205" s="10"/>
     </row>
-    <row r="206" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B206" s="6">
         <v>189</v>
       </c>
@@ -7950,7 +8007,7 @@
         <v>477</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>112</v>
@@ -7969,13 +8026,13 @@
         <v>190</v>
       </c>
       <c r="C207" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D207" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="E207" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>208</v>
@@ -7988,7 +8045,7 @@
         <v>45994</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="2:10" ht="90" x14ac:dyDescent="0.25">
@@ -7996,13 +8053,13 @@
         <v>191</v>
       </c>
       <c r="C208" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D208" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="E208" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>208</v>
@@ -8021,13 +8078,13 @@
         <v>192</v>
       </c>
       <c r="C209" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D209" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="E209" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>208</v>
@@ -8046,13 +8103,13 @@
         <v>193</v>
       </c>
       <c r="C210" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="E210" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>208</v>
@@ -8071,13 +8128,13 @@
         <v>194</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>112</v>
@@ -8096,13 +8153,13 @@
         <v>195</v>
       </c>
       <c r="C212" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E212" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>112</v>
@@ -8121,16 +8178,16 @@
         <v>196</v>
       </c>
       <c r="C213" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E213" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="D213" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="F213" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G213" s="19" t="s">
         <v>11</v>
@@ -8140,7 +8197,7 @@
         <v>43006</v>
       </c>
       <c r="J213" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="214" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -8148,16 +8205,16 @@
         <v>197</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G214" s="19" t="s">
         <v>11</v>
@@ -8167,7 +8224,7 @@
         <v>43262</v>
       </c>
       <c r="J214" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="215" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -8175,16 +8232,16 @@
         <v>198</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>11</v>
@@ -8194,7 +8251,7 @@
         <v>44335</v>
       </c>
       <c r="J215" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="216" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -8202,16 +8259,16 @@
         <v>199</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G216" s="19" t="s">
         <v>11</v>
@@ -8221,7 +8278,7 @@
         <v>44212</v>
       </c>
       <c r="J216" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="217" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -8229,16 +8286,16 @@
         <v>200</v>
       </c>
       <c r="C217" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E217" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D217" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="F217" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G217" s="19" t="s">
         <v>11</v>
@@ -8248,7 +8305,7 @@
         <v>44785</v>
       </c>
       <c r="J217" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="218" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -8256,16 +8313,16 @@
         <v>201</v>
       </c>
       <c r="C218" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F218" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="G218" s="19" t="s">
         <v>11</v>
@@ -8275,7 +8332,7 @@
         <v>43648</v>
       </c>
       <c r="J218" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -8283,16 +8340,16 @@
         <v>202</v>
       </c>
       <c r="C219" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D219" s="7" t="s">
-        <v>515</v>
-      </c>
       <c r="E219" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G219" s="19" t="s">
         <v>11</v>
@@ -8302,21 +8359,21 @@
         <v>45894</v>
       </c>
       <c r="J219" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B220" s="21">
+      <c r="B220" s="7">
         <v>203</v>
       </c>
-      <c r="C220" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="D220" s="21" t="s">
+      <c r="C220" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E220" s="21" t="s">
-        <v>530</v>
+      <c r="D220" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>112</v>
@@ -8324,12 +8381,39 @@
       <c r="G220" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H220" s="21"/>
-      <c r="I220" s="23">
+      <c r="H220" s="7"/>
+      <c r="I220" s="14">
         <v>45471</v>
       </c>
-      <c r="J220" s="22" t="s">
-        <v>528</v>
+      <c r="J220" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B221" s="21">
+        <v>204</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="D221" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="E221" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G221" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" s="21"/>
+      <c r="I221" s="23">
+        <v>46022</v>
+      </c>
+      <c r="J221" s="22" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -8339,31 +8423,31 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:G220">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="G18:G221">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H12 H14:H15">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8467,10 +8551,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>480</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>481</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="6" t="s">
@@ -8602,16 +8686,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G10">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Застосовно (з приміткою)"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Застосовно"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Не застосовно"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Застосовне законодавство.xlsx
+++ b/Застосовне законодавство.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375D45D-75C4-4A7A-AE7B-40C2CCEBE6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D378CF-225C-4AB6-83C2-45D411876FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{334805C5-B449-4CB8-AF80-1835CA06DE69}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="552">
   <si>
     <t>- В цьому реєстрі перераховані тільки основні законодавчі акти, не враховуючи супутні акти, що затверджують зміни, або покладають завдання з реалізації, наприклад, Національної стратегії кібербезпеки.
 - Сайт ВРУ - основне джерело інформації, оскільки на ньому можна відстежувати актуальність законодавчих актів.</t>
@@ -1450,12 +1450,6 @@
     <t>Стандарти України</t>
   </si>
   <si>
-    <t>Постанова Кабінету Міністрів України від 18 червня 2025 р. № 712 "Деякі питання захисту інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем"</t>
-  </si>
-  <si>
-    <t>https://www.kmu.gov.ua/npas/deiaki-pytannia-zakhystu-informatsiinykh-elektronnykh-komunikatsiinykh-informatsiino-s712180625</t>
-  </si>
-  <si>
     <t>https://eur-lex.europa.eu/eli/reg/2025/38/oj/eng</t>
   </si>
   <si>
@@ -1703,6 +1697,70 @@
 1. У вигляді Гугл таблиці: https://docs.google.com/spreadsheets/d/15hYIIZDt6F4W590Ja7rAVKe7FnrrDB8Fyl2HitdU1R0/edit?usp=sharing
 2. На сайті ДССЗЗІ: 
 https://cip.gov.ua/ua/statics/perelik-zaboronenogo-do-vikoristannya-programnogo-zabezpechennya-ta-komunikaciinogo-merezhevogo-obladnannya</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 17.12.2025 № 1668 "Про затвердження Порядку здійснення державного контролю за додержанням вимог законодавства у сфері кіберзахисту"</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1668-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Цей Порядок визначає механізм здійснення та форми заходів державного контролю за додержанням вимог законодавства у сфері кіберзахисту, процедури проведення перевірок додержання вимог законодавства у сфері кіберзахисту (далі - перевірка), права та обов'язки сторін під час здійснення зазначених заходів, а також вимоги до оформлення результатів перевірок.</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1471-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 13.11.2025 № 1471 "Про затвердження Порядку взаємодії суб’єктів національної системи реагування на кіберінциденти, кібератаки, кіберзагрози із суб’єктами забезпечення кібербезпеки, правоохоронними, контррозвідувальними, розвідувальними органами та суб’єктами оперативно-розшукової діяльності"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цей Порядок визначає механізм взаємодії:
+національної команди реагування на кіберінциденти, кібератаки, кіберзагрози (CERT-UA) з правоохоронними, розвідувальними та контррозвідувальними органами, суб’єктами оперативно-розшукової діяльності;
+галузевих та регіональних команд реагування на кіберінциденти, кібератаки, кіберзагрози (CSIRT) з правоохоронними, розвідувальними та контррозвідувальними органами, суб’єктами оперативно-розшукової діяльності, іншими суб’єктами національної системи реагування на кіберінциденти, кібератаки, кіберзагрози;
+Національної поліції, СБУ з іншими суб’єктами національної системи реагування на кіберінциденти, кібератаки, кіберзагрози. </t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 26.11.2025 № 1516 "Про затвердження Порядку призначення керівника з кіберзахисту на посаду в органі державної влади"</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1516-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Цей Порядок визначає процедуру призначення керівника з кіберзахисту на посаду в органі державної влади, що є власником або розпорядником інформаційних, електронних комунікаційних та інформаційно-комунікаційних систем, в яких обробляються державні інформаційні ресурси або службова інформація та інформація, що становить державну таємницю (далі - орган державної влади), та застосовується в частині, що не суперечить Закону України “Про державну службу”.
+Керівник з кіберзахисту в органі державної влади здійснює керівництво, координацію та контроль з питань кіберзахисту та захисту інформації відповідного органу державної влади. Керівник з кіберзахисту в органі державної влади не може бути посадовою особою, відповідальною за цифровий розвиток, цифрову трансформацію та цифровізацію в органі державної влади. Керівнику з кіберзахисту в органі державної влади підпорядковується підрозділ з кіберзахисту органу державної влади.</t>
+  </si>
+  <si>
+    <t>Постанова Кабінету Міністрів України від 26.11.2025 № 1533 "Деякі питання реагування на кіберінциденти, кібератаки та кіберзагрози"</t>
+  </si>
+  <si>
+    <t>https://zakon.rada.gov.ua/laws/show/1533-2025-%D0%BF#Text</t>
+  </si>
+  <si>
+    <t>Національний план реагування на кіберінциденти, кібератаки та кіберзагрози визначає загальні процедури реагування на кіберінциденти, кібератаки, кіберзагрози, а також механізм координації та взаємодії між суб’єктами національної системи реагування на кіберінциденти, кібератаки, кіберзагрози та суб’єктами забезпечення кібербезпеки, їх роль в рамках функціонування національної системи реагування на кіберінциденти, кібератаки, кіберзагрози (далі - національна система реагування) та національної системи обміну інформацією про кіберінциденти, кібератаки, кіберзагрози (далі - національна система обміну інформацією).</t>
+  </si>
+  <si>
+    <t>Наказ Адміністрації Держспецзв’язку від 21.05.2025 № 329 «Про призначення органу стандартизації криптографічного та технічного захисту інформації, кіберзахисту, протидії технічним розвідкам».</t>
+  </si>
+  <si>
+    <t>наказ Адміністрації Держспецзв’язку від 11.07.2025 № 434 «Про затвердження ведення переліку авторизованих систем з безпеки», зареєстровано у Міністерстві юстиції України 01.08.2025 за № 1140/44546;</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/docs/nakaz-administraciyi-derzhspeczv-yazku-vid-11-07-2025-424-pro-zatverdzhennya-poryadku-vedennya-pereliku-avtorizovanikh-sistem-z-bezpeki</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://cip.gov.ua/services/cm/api/attachment/download?id=72750&amp;embedded=true&amp;a=bi</t>
+  </si>
+  <si>
+    <t>наказ Адміністрації Держспецзв’язку від 11.07.2025 року № 438 «Про затвердження Вимог до юридичних осіб, фізичних осіб-підприємців, які здійснюють оцінювання реалізації цільового профілю безпеки інформаційних, електронних комунікаційних, інформаційно-комунікаційних, технологічних систем», зареєстрований у Міністерстві юстиції України 31 липня 2025 року за № 1125/44531;</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/administraciyeyu-derzhspeczv-yazku-priinyato-vimogi-do-yuridichnikh-osib-fizichnikh-osib-pidpriyemciv-yaki-zdiisnyuyut-ocinyuvannya-realizaciyi-cilovogo-profilyu-bezpeki-informaciinikh-elektronnikh-komunikaciinikh-informaciino-komunikaciinikh-tekhnologichnikh-sistem?fbclid=IwY2xjawPAxYtleHRuA2FlbQIxMABicmlkETFIeUlOVG5yeE02a0pSYko2c3J0YwZhcHBfaWQQMjIyMDM5MTc4ODIwMDg5MgABHowrVHZFOGs4IsyXjGbN7rSHg-Yu91NABS1TRN-xKMxjFeNG-RbpxZLCDD5Q_aem_ddGGwzZhgzQ_4NY6Iysopg</t>
+  </si>
+  <si>
+    <t>https://cip.gov.ua/ua/news/perelik-normativno-pravovikh-aktiv-na-vikonannya-zakonu-4336-ix</t>
+  </si>
+  <si>
+    <t>Перелік нормативно-правових актів на виконання Закону № 4336-IX</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1939,232 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2554,21 +2837,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B17:J221" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
-  <autoFilter ref="B17:J221" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:I200">
-    <sortCondition ref="B17:B200"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}" name="Таблиця2" displayName="Таблиця2" ref="B18:J228" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49">
+  <autoFilter ref="B18:J228" xr:uid="{FE4F2F92-58E2-48B9-A7D4-627EBB6ED48E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:I200">
+    <sortCondition ref="B18:B200"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{2B27F073-AE91-4210-B0D6-642DEFE05F63}" name="Галузь" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{DFA9E46C-509D-4A00-A369-7966EED6B176}" name="№" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{981014D8-EFBF-47F5-B054-36010B7987AF}" name="Джерело вимог" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{928FBB84-B24F-469A-AFD2-7EA49120BF89}" name="Посилання" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{D49602E6-E651-4C6D-8A88-C8DCD8A3AFDD}" name="Коментар" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{52AE3B44-6A02-4F51-99B9-C7E17C080BEC}" name="Категорія" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{DE39899F-E232-40DC-A0D1-10B3A973A842}" name="Застосовність" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{40F3EA47-8E92-48F7-A24A-6369E84EA096}" name="Теги" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{A1D4F9E4-94BB-4008-834E-B5DC4DE59C40}" name="Дата прийняття" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{2B27F073-AE91-4210-B0D6-642DEFE05F63}" name="Галузь" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2871,11 +3154,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B971BF4-F5CF-496D-9610-E7CBA5A28B9C}">
-  <dimension ref="A2:J221"/>
+  <dimension ref="A2:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2961,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2973,7 +3254,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3061,85 +3342,73 @@
       <c r="G15" s="2"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="13.9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="J18" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>24</v>
@@ -3147,25 +3416,25 @@
       <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="H19" s="6"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>24</v>
@@ -3173,23 +3442,25 @@
       <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>24</v>
@@ -3201,19 +3472,19 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>24</v>
@@ -3225,19 +3496,19 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>24</v>
@@ -3249,19 +3520,19 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>24</v>
@@ -3273,19 +3544,19 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>24</v>
@@ -3300,16 +3571,16 @@
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>460</v>
+        <v>398</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>24</v>
@@ -3324,16 +3595,16 @@
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>46</v>
+        <v>458</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>24</v>
@@ -3345,19 +3616,19 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>50</v>
+        <v>454</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>24</v>
@@ -3365,25 +3636,23 @@
       <c r="G28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>453</v>
+        <v>50</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>454</v>
+        <v>51</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
@@ -3391,23 +3660,25 @@
       <c r="G29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>46</v>
+        <v>452</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>24</v>
@@ -3422,10 +3693,10 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>45</v>
@@ -3443,19 +3714,19 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>24</v>
@@ -3467,19 +3738,19 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>452</v>
+        <v>57</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>455</v>
+        <v>58</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>24</v>
@@ -3491,19 +3762,19 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
       <c r="B34" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>61</v>
+        <v>450</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>62</v>
+        <v>453</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>24</v>
@@ -3511,53 +3782,49 @@
       <c r="G34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="11">
-        <v>43013</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>67</v>
@@ -3569,23 +3836,23 @@
         <v>68</v>
       </c>
       <c r="I36" s="11">
-        <v>43272</v>
+        <v>43013</v>
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>67</v>
@@ -3597,23 +3864,23 @@
         <v>68</v>
       </c>
       <c r="I37" s="11">
-        <v>38771</v>
+        <v>43272</v>
       </c>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>67</v>
@@ -3622,28 +3889,26 @@
         <v>11</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I38" s="11">
-        <v>44516</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>38771</v>
+      </c>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>67</v>
@@ -3651,27 +3916,29 @@
       <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I39" s="11">
-        <v>44181</v>
+        <v>44516</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>67</v>
@@ -3681,25 +3948,25 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="11">
-        <v>34520</v>
+        <v>44181</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>84</v>
+        <v>407</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>67</v>
@@ -3709,25 +3976,25 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="11">
-        <v>43013</v>
+        <v>34520</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>67</v>
@@ -3735,29 +4002,27 @@
       <c r="G42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="11">
-        <v>40330</v>
+        <v>43013</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>52</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>67</v>
@@ -3765,27 +4030,29 @@
       <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="I43" s="11">
-        <v>40556</v>
+        <v>40330</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>67</v>
@@ -3793,59 +4060,57 @@
       <c r="G44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>94</v>
-      </c>
+      <c r="H44" s="6"/>
       <c r="I44" s="11">
-        <v>44609</v>
+        <v>40556</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="I45" s="11">
-        <v>44434</v>
+        <v>44609</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>98</v>
@@ -3857,25 +4122,25 @@
         <v>68</v>
       </c>
       <c r="I46" s="11">
-        <v>44593</v>
+        <v>44434</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>98</v>
@@ -3883,27 +4148,29 @@
       <c r="G47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I47" s="11">
-        <v>35937</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+        <v>44593</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>98</v>
@@ -3911,57 +4178,57 @@
       <c r="G48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="H48" s="6"/>
       <c r="I48" s="11">
-        <v>36430</v>
+        <v>35937</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="I49" s="11">
-        <v>41885</v>
+        <v>36430</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>112</v>
@@ -3969,29 +4236,27 @@
       <c r="G50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="6"/>
+      <c r="I50" s="11">
+        <v>41885</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="I50" s="11">
-        <v>43635</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>112</v>
@@ -4003,25 +4268,25 @@
         <v>52</v>
       </c>
       <c r="I51" s="11">
-        <v>44113</v>
+        <v>43635</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>112</v>
@@ -4036,22 +4301,22 @@
         <v>44113</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>112</v>
@@ -4063,25 +4328,25 @@
         <v>52</v>
       </c>
       <c r="I53" s="11">
-        <v>44146</v>
+        <v>44113</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>112</v>
@@ -4090,26 +4355,28 @@
         <v>11</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I54" s="11">
-        <v>44188</v>
-      </c>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>44146</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>112</v>
@@ -4121,23 +4388,23 @@
         <v>68</v>
       </c>
       <c r="I55" s="11">
-        <v>45023</v>
+        <v>44188</v>
       </c>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>112</v>
@@ -4149,23 +4416,23 @@
         <v>68</v>
       </c>
       <c r="I56" s="11">
-        <v>44559</v>
+        <v>45023</v>
       </c>
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>112</v>
@@ -4173,25 +4440,27 @@
       <c r="G57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="10" t="s">
-        <v>412</v>
+      <c r="H57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="11">
+        <v>44559</v>
       </c>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>112</v>
@@ -4201,23 +4470,23 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>408</v>
+        <v>138</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>112</v>
@@ -4226,24 +4495,24 @@
         <v>11</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="I59" s="11">
-        <v>38805</v>
+      <c r="I59" s="10" t="s">
+        <v>413</v>
       </c>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>143</v>
+        <v>408</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>112</v>
@@ -4251,27 +4520,25 @@
       <c r="G60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="H60" s="6"/>
       <c r="I60" s="11">
-        <v>35711</v>
+        <v>38805</v>
       </c>
       <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>112</v>
@@ -4283,23 +4550,23 @@
         <v>108</v>
       </c>
       <c r="I61" s="11">
-        <v>40037</v>
+        <v>35711</v>
       </c>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>112</v>
@@ -4308,23 +4575,23 @@
         <v>11</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="I62" s="11">
-        <v>37819</v>
+        <v>40037</v>
       </c>
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>149</v>
@@ -4346,16 +4613,16 @@
     <row r="64" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>112</v>
@@ -4364,26 +4631,26 @@
         <v>11</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I64" s="11">
-        <v>37328</v>
+        <v>37819</v>
       </c>
       <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>112</v>
@@ -4392,26 +4659,26 @@
         <v>11</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I65" s="11">
-        <v>41626</v>
+        <v>37328</v>
       </c>
       <c r="J65" s="10"/>
     </row>
-    <row r="66" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>112</v>
@@ -4419,25 +4686,27 @@
       <c r="G66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="I66" s="11">
-        <v>35830</v>
+        <v>41626</v>
       </c>
       <c r="J66" s="10"/>
     </row>
-    <row r="67" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>112</v>
@@ -4445,27 +4714,25 @@
       <c r="G67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="H67" s="6"/>
       <c r="I67" s="11">
-        <v>42662</v>
+        <v>35830</v>
       </c>
       <c r="J67" s="10"/>
     </row>
-    <row r="68" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>112</v>
@@ -4473,25 +4740,27 @@
       <c r="G68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="I68" s="11">
-        <v>37874</v>
+        <v>42662</v>
       </c>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>410</v>
+        <v>166</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>112</v>
@@ -4499,27 +4768,25 @@
       <c r="G69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="H69" s="6"/>
       <c r="I69" s="11">
-        <v>35842</v>
+        <v>37874</v>
       </c>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>112</v>
@@ -4528,26 +4795,26 @@
         <v>11</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="I70" s="11">
-        <v>38567</v>
+        <v>35842</v>
       </c>
       <c r="J70" s="10"/>
     </row>
-    <row r="71" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>180</v>
+        <v>411</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>112</v>
@@ -4559,23 +4826,23 @@
         <v>68</v>
       </c>
       <c r="I71" s="11">
-        <v>44188</v>
+        <v>38567</v>
       </c>
       <c r="J71" s="10"/>
     </row>
-    <row r="72" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>112</v>
@@ -4584,28 +4851,26 @@
         <v>11</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I72" s="11">
-        <v>45044</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+        <v>44188</v>
+      </c>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>409</v>
+        <v>183</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>112</v>
@@ -4613,25 +4878,29 @@
       <c r="G73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="H73" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="I73" s="11">
-        <v>45034</v>
-      </c>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="1:10" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+        <v>45044</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
       <c r="B74" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>188</v>
+        <v>409</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>112</v>
@@ -4639,27 +4908,25 @@
       <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="H74" s="6"/>
       <c r="I74" s="11">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="196.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>112</v>
@@ -4667,106 +4934,108 @@
       <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="6"/>
+      <c r="H75" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I75" s="11">
-        <v>45062</v>
+        <v>45020</v>
       </c>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="11">
-        <v>44966</v>
+        <v>45062</v>
       </c>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="11">
-        <v>44188</v>
+        <v>44966</v>
       </c>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="I78" s="11">
-        <v>39218</v>
+        <v>44188</v>
       </c>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="F79" s="6" t="s">
         <v>202</v>
       </c>
@@ -4774,54 +5043,52 @@
         <v>11</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I79" s="11">
-        <v>42174</v>
+        <v>39218</v>
       </c>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>207</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="I80" s="11">
-        <v>41975</v>
+        <v>42174</v>
       </c>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>208</v>
@@ -4833,23 +5100,23 @@
         <v>68</v>
       </c>
       <c r="I81" s="11">
-        <v>42384</v>
+        <v>41975</v>
       </c>
       <c r="J81" s="10"/>
     </row>
-    <row r="82" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>208</v>
@@ -4858,25 +5125,23 @@
         <v>11</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I82" s="11">
-        <v>44211</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>42384</v>
+      </c>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>27</v>
@@ -4891,24 +5156,25 @@
         <v>52</v>
       </c>
       <c r="I83" s="11">
-        <v>44449</v>
+        <v>44211</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
       <c r="B84" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>426</v>
+        <v>27</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>208</v>
@@ -4920,24 +5186,24 @@
         <v>52</v>
       </c>
       <c r="I84" s="11">
-        <v>44475</v>
+        <v>44449</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>220</v>
+        <v>426</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>208</v>
@@ -4946,25 +5212,27 @@
         <v>11</v>
       </c>
       <c r="H85" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I85" s="11">
+        <v>44475</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
         <v>68</v>
       </c>
-      <c r="I85" s="11">
-        <v>44736</v>
-      </c>
-      <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B86" s="6">
-        <v>69</v>
-      </c>
       <c r="C86" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>208</v>
@@ -4972,24 +5240,26 @@
       <c r="G86" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="6"/>
+      <c r="H86" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I86" s="11">
-        <v>45075</v>
+        <v>44736</v>
       </c>
       <c r="J86" s="10"/>
     </row>
-    <row r="87" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>208</v>
@@ -4997,26 +5267,24 @@
       <c r="G87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="H87" s="6"/>
       <c r="I87" s="11">
-        <v>45110</v>
+        <v>45075</v>
       </c>
       <c r="J87" s="10"/>
     </row>
-    <row r="88" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>208</v>
@@ -5024,24 +5292,26 @@
       <c r="G88" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H88" s="6"/>
+      <c r="H88" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="I88" s="11">
-        <v>45121</v>
+        <v>45110</v>
       </c>
       <c r="J88" s="10"/>
     </row>
-    <row r="89" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>208</v>
@@ -5051,22 +5321,22 @@
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="11">
-        <v>39167</v>
+        <v>45121</v>
       </c>
       <c r="J89" s="10"/>
     </row>
-    <row r="90" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>208</v>
@@ -5076,22 +5346,22 @@
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="11">
-        <v>39196</v>
+        <v>39167</v>
       </c>
       <c r="J90" s="10"/>
     </row>
-    <row r="91" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>208</v>
@@ -5099,50 +5369,48 @@
       <c r="G91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="6"/>
+      <c r="I91" s="11">
+        <v>39196</v>
+      </c>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
+        <v>74</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I92" s="11">
         <v>39609</v>
-      </c>
-      <c r="J91" s="10"/>
-    </row>
-    <row r="92" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="B92" s="6">
-        <v>75</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I92" s="11">
-        <v>35065</v>
       </c>
       <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>419</v>
@@ -5163,15 +5431,15 @@
     </row>
     <row r="94" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E94" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>419</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -5184,23 +5452,25 @@
         <v>108</v>
       </c>
       <c r="I94" s="11">
-        <v>35431</v>
+        <v>35065</v>
       </c>
       <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E95" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="F95" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>11</v>
@@ -5209,31 +5479,28 @@
         <v>108</v>
       </c>
       <c r="I95" s="11">
-        <v>36161</v>
+        <v>35431</v>
       </c>
       <c r="J95" s="10"/>
     </row>
     <row r="96" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="B96" s="6">
-        <v>79</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>248</v>
+        <v>78</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="E96" s="7"/>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="6" t="s">
         <v>108</v>
       </c>
       <c r="I96" s="11">
@@ -5241,40 +5508,43 @@
       </c>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="B97" s="6">
+        <v>79</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I97" s="11">
+        <v>36161</v>
+      </c>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
         <v>80</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I97" s="11">
-        <v>36526</v>
-      </c>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B98" s="6">
-        <v>81</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
@@ -5284,22 +5554,22 @@
         <v>11</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="I98" s="11">
-        <v>39448</v>
+        <v>36526</v>
       </c>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
@@ -5309,22 +5579,22 @@
         <v>11</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I99" s="11">
-        <v>36526</v>
+        <v>39448</v>
       </c>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6" t="s">
@@ -5334,22 +5604,22 @@
         <v>11</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I100" s="11">
-        <v>40909</v>
+        <v>36526</v>
       </c>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" spans="2:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
@@ -5358,51 +5628,51 @@
       <c r="G101" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="6" t="str">
+      <c r="H101" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I101" s="11">
+        <v>40909</v>
+      </c>
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="B102" s="6">
+        <v>84</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="6" t="str">
         <f>"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I102" s="11">
         <v>37622</v>
       </c>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" spans="2:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="B102" s="6">
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
         <v>85</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6" t="s">
+      <c r="D103" s="6"/>
+      <c r="E103" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F102" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I102" s="11">
-        <v>37987</v>
-      </c>
-      <c r="J102" s="10"/>
-    </row>
-    <row r="103" spans="2:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="B103" s="6">
-        <v>86</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
         <v>246</v>
       </c>
@@ -5413,21 +5683,21 @@
         <v>108</v>
       </c>
       <c r="I103" s="11">
-        <v>41275</v>
+        <v>37987</v>
       </c>
       <c r="J103" s="10"/>
     </row>
-    <row r="104" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
         <v>246</v>
       </c>
@@ -5435,19 +5705,19 @@
         <v>11</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I104" s="11">
-        <v>42005</v>
+        <v>41275</v>
       </c>
       <c r="J104" s="10"/>
     </row>
-    <row r="105" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
@@ -5467,12 +5737,12 @@
       </c>
       <c r="J105" s="10"/>
     </row>
-    <row r="106" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6" t="s">
@@ -5492,12 +5762,12 @@
       </c>
       <c r="J106" s="10"/>
     </row>
-    <row r="107" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
@@ -5517,17 +5787,17 @@
       </c>
       <c r="J107" s="10"/>
     </row>
-    <row r="108" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E108" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F108" s="6" t="s">
         <v>246</v>
       </c>
@@ -5535,22 +5805,22 @@
         <v>11</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="I108" s="11">
-        <v>36892</v>
+        <v>42005</v>
       </c>
       <c r="J108" s="10"/>
     </row>
-    <row r="109" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
@@ -5559,24 +5829,23 @@
       <c r="G109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
+      <c r="H109" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="I109" s="11">
         <v>36892</v>
       </c>
       <c r="J109" s="10"/>
     </row>
-    <row r="110" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
@@ -5594,15 +5863,15 @@
       </c>
       <c r="J110" s="10"/>
     </row>
-    <row r="111" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
@@ -5611,25 +5880,26 @@
       <c r="G111" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="6" t="s">
-        <v>253</v>
+      <c r="H111" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
       </c>
       <c r="I111" s="11">
         <v>36892</v>
       </c>
       <c r="J111" s="10"/>
     </row>
-    <row r="112" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
         <v>246</v>
       </c>
@@ -5644,17 +5914,17 @@
       </c>
       <c r="J112" s="10"/>
     </row>
-    <row r="113" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E113" s="6"/>
+        <v>276</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F113" s="6" t="s">
         <v>246</v>
       </c>
@@ -5669,17 +5939,17 @@
       </c>
       <c r="J113" s="10"/>
     </row>
-    <row r="114" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
         <v>246</v>
       </c>
@@ -5687,19 +5957,19 @@
         <v>11</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="I114" s="11">
-        <v>42005</v>
+        <v>36892</v>
       </c>
       <c r="J114" s="10"/>
     </row>
     <row r="115" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6" t="s">
@@ -5721,10 +5991,10 @@
     </row>
     <row r="116" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
@@ -5746,10 +6016,10 @@
     </row>
     <row r="117" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
@@ -5769,44 +6039,43 @@
       </c>
       <c r="J117" s="10"/>
     </row>
-    <row r="118" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>420</v>
-      </c>
+    <row r="118" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E118" s="6"/>
+        <v>282</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F118" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
+      <c r="H118" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="I118" s="11">
-        <v>45292</v>
+        <v>42005</v>
       </c>
       <c r="J118" s="10"/>
     </row>
     <row r="119" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="B119" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
@@ -5826,13 +6095,13 @@
     </row>
     <row r="120" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
@@ -5850,37 +6119,38 @@
       </c>
       <c r="J120" s="10"/>
     </row>
-    <row r="121" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H121" s="6" t="s">
-        <v>156</v>
+      <c r="H121" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
       </c>
       <c r="I121" s="11">
-        <v>42005</v>
+        <v>45292</v>
       </c>
       <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
@@ -5902,10 +6172,10 @@
     </row>
     <row r="123" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
@@ -5925,17 +6195,17 @@
       </c>
       <c r="J123" s="10"/>
     </row>
-    <row r="124" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E124" s="6"/>
+        <v>285</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F124" s="6" t="s">
         <v>246</v>
       </c>
@@ -5943,22 +6213,22 @@
         <v>11</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="I124" s="11">
-        <v>36161</v>
+        <v>42005</v>
       </c>
       <c r="J124" s="10"/>
     </row>
     <row r="125" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
@@ -5975,15 +6245,15 @@
       </c>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
@@ -5993,22 +6263,22 @@
         <v>11</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="I126" s="11">
         <v>36161</v>
       </c>
       <c r="J126" s="10"/>
     </row>
-    <row r="127" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
@@ -6018,22 +6288,22 @@
         <v>11</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="I127" s="11">
-        <v>37257</v>
+        <v>36161</v>
       </c>
       <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
@@ -6046,21 +6316,21 @@
         <v>108</v>
       </c>
       <c r="I128" s="11">
-        <v>37622</v>
+        <v>37257</v>
       </c>
       <c r="J128" s="10"/>
     </row>
-    <row r="129" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
         <v>246</v>
       </c>
@@ -6068,24 +6338,24 @@
         <v>11</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="I129" s="11">
-        <v>42005</v>
+        <v>37622</v>
       </c>
       <c r="J129" s="10"/>
     </row>
-    <row r="130" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E130" s="6"/>
+        <v>296</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F130" s="6" t="s">
         <v>246</v>
       </c>
@@ -6093,22 +6363,22 @@
         <v>11</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="I130" s="11">
-        <v>40544</v>
+        <v>42005</v>
       </c>
       <c r="J130" s="10"/>
     </row>
-    <row r="131" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B131" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
@@ -6117,24 +6387,23 @@
       <c r="G131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H131" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
+      <c r="H131" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="I131" s="11">
-        <v>44197</v>
+        <v>40544</v>
       </c>
       <c r="J131" s="10"/>
     </row>
-    <row r="132" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B132" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
@@ -6143,23 +6412,24 @@
       <c r="G132" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H132" s="6" t="s">
-        <v>253</v>
+      <c r="H132" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
       </c>
       <c r="I132" s="11">
-        <v>36161</v>
+        <v>44197</v>
       </c>
       <c r="J132" s="10"/>
     </row>
-    <row r="133" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B133" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
@@ -6169,22 +6439,22 @@
         <v>11</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="I133" s="11">
-        <v>39814</v>
+        <v>36161</v>
       </c>
       <c r="J133" s="10"/>
     </row>
     <row r="134" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B134" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
@@ -6201,15 +6471,15 @@
       </c>
       <c r="J134" s="10"/>
     </row>
-    <row r="135" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
@@ -6219,24 +6489,24 @@
         <v>11</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="I135" s="11">
-        <v>40909</v>
+        <v>39814</v>
       </c>
       <c r="J135" s="10"/>
     </row>
     <row r="136" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
         <v>246</v>
       </c>
@@ -6244,22 +6514,24 @@
         <v>11</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="I136" s="11">
-        <v>42005</v>
+        <v>40909</v>
       </c>
       <c r="J136" s="10"/>
     </row>
-    <row r="137" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F137" s="6" t="s">
         <v>246</v>
       </c>
@@ -6267,24 +6539,22 @@
         <v>11</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="I137" s="11">
-        <v>36526</v>
+        <v>42005</v>
       </c>
       <c r="J137" s="10"/>
     </row>
     <row r="138" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D138" s="6"/>
-      <c r="E138" s="6" t="s">
-        <v>419</v>
-      </c>
+      <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
         <v>246</v>
       </c>
@@ -6295,45 +6565,44 @@
         <v>108</v>
       </c>
       <c r="I138" s="11">
-        <v>42370</v>
+        <v>36526</v>
       </c>
       <c r="J138" s="10"/>
     </row>
-    <row r="139" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E139" s="6"/>
+        <v>311</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="F139" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H139" s="6" t="str">
-        <f t="shared" ref="H139:H144" si="0">"#ТЗІ"</f>
-        <v>#ТЗІ</v>
+      <c r="H139" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="I139" s="11">
-        <v>44197</v>
+        <v>42370</v>
       </c>
       <c r="J139" s="10"/>
     </row>
-    <row r="140" spans="2:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
@@ -6343,23 +6612,23 @@
         <v>11</v>
       </c>
       <c r="H140" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H140:H145" si="0">"#ТЗІ"</f>
         <v>#ТЗІ</v>
       </c>
       <c r="I140" s="11">
-        <v>36526</v>
+        <v>44197</v>
       </c>
       <c r="J140" s="10"/>
     </row>
-    <row r="141" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" ht="180" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
@@ -6373,19 +6642,19 @@
         <v>#ТЗІ</v>
       </c>
       <c r="I141" s="11">
-        <v>44197</v>
+        <v>36526</v>
       </c>
       <c r="J141" s="10"/>
     </row>
-    <row r="142" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
@@ -6399,19 +6668,19 @@
         <v>#ТЗІ</v>
       </c>
       <c r="I142" s="11">
-        <v>45292</v>
+        <v>44197</v>
       </c>
       <c r="J142" s="10"/>
     </row>
     <row r="143" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
@@ -6429,15 +6698,15 @@
       </c>
       <c r="J143" s="10"/>
     </row>
-    <row r="144" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
@@ -6455,15 +6724,15 @@
       </c>
       <c r="J144" s="10"/>
     </row>
-    <row r="145" spans="2:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
@@ -6472,23 +6741,24 @@
       <c r="G145" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="6" t="s">
-        <v>108</v>
+      <c r="H145" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>#ТЗІ</v>
       </c>
       <c r="I145" s="11">
-        <v>36161</v>
+        <v>45292</v>
       </c>
       <c r="J145" s="10"/>
     </row>
     <row r="146" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
@@ -6501,19 +6771,19 @@
         <v>108</v>
       </c>
       <c r="I146" s="11">
-        <v>44927</v>
+        <v>36161</v>
       </c>
       <c r="J146" s="10"/>
     </row>
-    <row r="147" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
@@ -6522,24 +6792,23 @@
       <c r="G147" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="6" t="str">
-        <f>"#ТЗІ"</f>
-        <v>#ТЗІ</v>
+      <c r="H147" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="I147" s="11">
-        <v>36892</v>
+        <v>44927</v>
       </c>
       <c r="J147" s="10"/>
     </row>
-    <row r="148" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:10" ht="165" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6" t="s">
@@ -6548,23 +6817,24 @@
       <c r="G148" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H148" s="6" t="s">
-        <v>253</v>
+      <c r="H148" s="6" t="str">
+        <f>"#ТЗІ"</f>
+        <v>#ТЗІ</v>
       </c>
       <c r="I148" s="11">
-        <v>36526</v>
+        <v>36892</v>
       </c>
       <c r="J148" s="10"/>
     </row>
-    <row r="149" spans="2:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
@@ -6577,28 +6847,28 @@
         <v>253</v>
       </c>
       <c r="I149" s="11">
-        <v>34700</v>
+        <v>36526</v>
       </c>
       <c r="J149" s="10"/>
     </row>
-    <row r="150" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:10" ht="195" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
-        <v>133</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6" t="s">
         <v>246</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="6" t="s">
         <v>253</v>
       </c>
       <c r="I150" s="11">
@@ -6606,40 +6876,40 @@
       </c>
       <c r="J150" s="10"/>
     </row>
-    <row r="151" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:10" ht="165" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="I151" s="11">
-        <v>45467</v>
+        <v>34700</v>
       </c>
       <c r="J151" s="10"/>
     </row>
-    <row r="152" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="7" t="s">
@@ -6652,42 +6922,43 @@
         <v>28</v>
       </c>
       <c r="I152" s="11">
+        <v>45467</v>
+      </c>
+      <c r="J152" s="10"/>
+    </row>
+    <row r="153" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B153" s="6">
+        <v>135</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I153" s="11">
         <v>45412</v>
       </c>
-      <c r="J152" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="6">
-        <v>136</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="I153" s="11">
-        <v>43466</v>
-      </c>
-      <c r="J153" s="10" t="s">
-        <v>523</v>
+      <c r="J153" s="6" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="6">
-        <v>137</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>348</v>
+        <v>136</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
@@ -6703,15 +6974,15 @@
         <v>43466</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="6">
-        <v>138</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>386</v>
+        <v>137</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>348</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6" t="s">
@@ -6724,18 +6995,18 @@
         <v>396</v>
       </c>
       <c r="I155" s="11">
-        <v>42736</v>
+        <v>43466</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6" t="s">
@@ -6751,15 +7022,15 @@
         <v>42736</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6" t="s">
@@ -6772,18 +7043,18 @@
         <v>396</v>
       </c>
       <c r="I157" s="11">
-        <v>43466</v>
+        <v>42736</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6" t="s">
@@ -6799,15 +7070,15 @@
         <v>43466</v>
       </c>
       <c r="J158" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="6">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6" t="s">
@@ -6820,18 +7091,18 @@
         <v>396</v>
       </c>
       <c r="I159" s="11">
-        <v>44197</v>
+        <v>43466</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6" t="s">
@@ -6843,22 +7114,19 @@
       <c r="H160" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="I160" s="11" t="s">
-        <v>421</v>
+      <c r="I160" s="11">
+        <v>44197</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6" t="s">
@@ -6870,19 +7138,22 @@
       <c r="H161" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="I161" s="11">
-        <v>40179</v>
+      <c r="I161" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>351</v>
+        <v>388</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
@@ -6895,18 +7166,18 @@
         <v>396</v>
       </c>
       <c r="I162" s="11">
-        <v>41640</v>
+        <v>40179</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
@@ -6919,18 +7190,18 @@
         <v>396</v>
       </c>
       <c r="I163" s="11">
-        <v>42005</v>
+        <v>41640</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="6">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
@@ -6946,18 +7217,15 @@
         <v>42005</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
@@ -6970,21 +7238,21 @@
         <v>396</v>
       </c>
       <c r="I165" s="11">
-        <v>36526</v>
+        <v>42005</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" s="6">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
@@ -7000,18 +7268,18 @@
         <v>36526</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" s="6">
-        <v>150</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>363</v>
+        <v>149</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
@@ -7024,21 +7292,21 @@
         <v>396</v>
       </c>
       <c r="I167" s="11">
-        <v>36892</v>
+        <v>36526</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
@@ -7054,18 +7322,18 @@
         <v>36892</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" s="6">
-        <v>152</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>364</v>
+        <v>151</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
@@ -7078,21 +7346,21 @@
         <v>396</v>
       </c>
       <c r="I169" s="11">
-        <v>37257</v>
+        <v>36892</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
@@ -7108,20 +7376,20 @@
         <v>37257</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E171" s="7"/>
+        <v>359</v>
+      </c>
+      <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
         <v>395</v>
       </c>
@@ -7132,23 +7400,23 @@
         <v>396</v>
       </c>
       <c r="I171" s="11">
-        <v>37622</v>
+        <v>37257</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" s="6">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E172" s="6"/>
+        <v>371</v>
+      </c>
+      <c r="E172" s="7"/>
       <c r="F172" s="6" t="s">
         <v>395</v>
       </c>
@@ -7159,21 +7427,21 @@
         <v>396</v>
       </c>
       <c r="I172" s="11">
-        <v>37987</v>
+        <v>37622</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" s="6">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
@@ -7186,18 +7454,21 @@
         <v>396</v>
       </c>
       <c r="I173" s="11">
-        <v>38353</v>
+        <v>37987</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" s="6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
@@ -7210,18 +7481,18 @@
         <v>396</v>
       </c>
       <c r="I174" s="11">
-        <v>38718</v>
+        <v>38353</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="6">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
@@ -7234,21 +7505,18 @@
         <v>396</v>
       </c>
       <c r="I175" s="11">
-        <v>42005</v>
+        <v>38718</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" s="6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
@@ -7261,18 +7529,21 @@
         <v>396</v>
       </c>
       <c r="I176" s="11">
-        <v>44562</v>
+        <v>42005</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
@@ -7285,21 +7556,18 @@
         <v>396</v>
       </c>
       <c r="I177" s="11">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="J177" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
@@ -7312,21 +7580,21 @@
         <v>396</v>
       </c>
       <c r="I178" s="11">
-        <v>37257</v>
+        <v>44197</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
@@ -7342,18 +7610,18 @@
         <v>37257</v>
       </c>
       <c r="J179" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
@@ -7366,18 +7634,21 @@
         <v>396</v>
       </c>
       <c r="I180" s="11">
-        <v>39083</v>
+        <v>37257</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
@@ -7390,18 +7661,18 @@
         <v>396</v>
       </c>
       <c r="I181" s="11">
-        <v>39448</v>
+        <v>39083</v>
       </c>
       <c r="J181" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
@@ -7414,18 +7685,18 @@
         <v>396</v>
       </c>
       <c r="I182" s="11">
-        <v>42005</v>
+        <v>39448</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" s="6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
@@ -7438,18 +7709,18 @@
         <v>396</v>
       </c>
       <c r="I183" s="11">
-        <v>44197</v>
+        <v>42005</v>
       </c>
       <c r="J183" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" s="6">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
@@ -7462,22 +7733,22 @@
         <v>396</v>
       </c>
       <c r="I184" s="11">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>11</v>
@@ -7486,18 +7757,18 @@
         <v>396</v>
       </c>
       <c r="I185" s="11">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
@@ -7513,15 +7784,15 @@
         <v>44197</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
@@ -7537,15 +7808,15 @@
         <v>44197</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
@@ -7561,15 +7832,15 @@
         <v>44197</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
@@ -7585,99 +7856,98 @@
         <v>44197</v>
       </c>
       <c r="J189" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="190" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" s="6">
+        <v>172</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I190" s="11">
+        <v>44197</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="B191" s="6">
         <v>173</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C191" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D191" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7" t="s">
+      <c r="E191" s="7"/>
+      <c r="F191" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" s="7" t="s">
+      <c r="G191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I190" s="11">
+      <c r="I191" s="11">
         <v>45549</v>
       </c>
-      <c r="J190" s="10"/>
-    </row>
-    <row r="191" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B191" s="6">
+      <c r="J191" s="10"/>
+    </row>
+    <row r="192" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B192" s="6">
         <v>174</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C192" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E192" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F192" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" s="7" t="s">
+      <c r="G192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="I191" s="14">
+      <c r="I192" s="14">
         <v>42298</v>
       </c>
-      <c r="J191" s="10"/>
-    </row>
-    <row r="192" spans="2:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="B192" s="6">
+      <c r="J192" s="10"/>
+    </row>
+    <row r="193" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B193" s="6">
         <v>175</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C193" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="E193" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I192" s="14">
-        <v>45687</v>
-      </c>
-      <c r="J192" s="10"/>
-    </row>
-    <row r="193" spans="2:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="B193" s="6">
-        <v>176</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E193" s="7"/>
       <c r="F193" s="7" t="s">
         <v>208</v>
       </c>
@@ -7688,44 +7958,46 @@
         <v>52</v>
       </c>
       <c r="I193" s="14">
-        <v>45623</v>
-      </c>
-      <c r="J193" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+        <v>45687</v>
+      </c>
+      <c r="J193" s="10"/>
+    </row>
+    <row r="194" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H194" s="6"/>
+      <c r="H194" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="I194" s="14">
-        <v>45709</v>
-      </c>
-      <c r="J194" s="10"/>
+        <v>45623</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="195" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7" t="s">
@@ -7734,48 +8006,46 @@
       <c r="G195" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H195" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="H195" s="6"/>
       <c r="I195" s="14">
-        <v>45699</v>
+        <v>45709</v>
       </c>
       <c r="J195" s="10"/>
     </row>
-    <row r="196" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="7" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="I196" s="14">
-        <v>45645</v>
+        <v>45699</v>
       </c>
       <c r="J196" s="10"/>
     </row>
-    <row r="197" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7" t="s">
@@ -7785,20 +8055,22 @@
         <v>11</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I197" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="I197" s="14">
+        <v>45645</v>
+      </c>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B198" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="7" t="s">
@@ -7808,76 +8080,74 @@
         <v>11</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I198" s="14">
-        <v>45671</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="I198" s="15"/>
+      <c r="J198" s="10"/>
+    </row>
+    <row r="199" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B199" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="7" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I199" s="14">
-        <v>45743</v>
+        <v>45671</v>
       </c>
       <c r="J199" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B200" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G200" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="I200" s="14">
-        <v>45826</v>
-      </c>
-      <c r="J200" s="10"/>
+        <v>45743</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="201" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B201" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="7" t="s">
@@ -7896,13 +8166,13 @@
     </row>
     <row r="202" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B202" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7" t="s">
@@ -7921,16 +8191,16 @@
     </row>
     <row r="203" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B203" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>112</v>
@@ -7948,16 +8218,16 @@
     </row>
     <row r="204" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B204" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D204" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E204" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>112</v>
@@ -7973,16 +8243,16 @@
     </row>
     <row r="205" spans="2:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B205" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C205" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E205" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>208</v>
@@ -7998,16 +8268,16 @@
     </row>
     <row r="206" spans="2:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B206" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F206" s="7" t="s">
         <v>112</v>
@@ -8023,16 +8293,16 @@
     </row>
     <row r="207" spans="2:10" ht="255" x14ac:dyDescent="0.25">
       <c r="B207" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C207" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E207" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="E207" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>208</v>
@@ -8045,21 +8315,21 @@
         <v>45994</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="208" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B208" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C208" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>208</v>
@@ -8075,16 +8345,16 @@
     </row>
     <row r="209" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B209" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C209" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E209" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>208</v>
@@ -8100,16 +8370,16 @@
     </row>
     <row r="210" spans="2:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B210" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C210" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E210" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="E210" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>208</v>
@@ -8125,16 +8395,16 @@
     </row>
     <row r="211" spans="2:10" ht="150" x14ac:dyDescent="0.25">
       <c r="B211" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>112</v>
@@ -8150,16 +8420,16 @@
     </row>
     <row r="212" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B212" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D212" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E212" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="E212" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>112</v>
@@ -8175,19 +8445,19 @@
     </row>
     <row r="213" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B213" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G213" s="19" t="s">
         <v>11</v>
@@ -8197,24 +8467,24 @@
         <v>43006</v>
       </c>
       <c r="J213" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="214" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B214" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G214" s="19" t="s">
         <v>11</v>
@@ -8224,24 +8494,24 @@
         <v>43262</v>
       </c>
       <c r="J214" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B215" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>11</v>
@@ -8251,24 +8521,24 @@
         <v>44335</v>
       </c>
       <c r="J215" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="216" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B216" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G216" s="19" t="s">
         <v>11</v>
@@ -8278,24 +8548,24 @@
         <v>44212</v>
       </c>
       <c r="J216" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B217" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G217" s="19" t="s">
         <v>11</v>
@@ -8305,24 +8575,24 @@
         <v>44785</v>
       </c>
       <c r="J217" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B218" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E218" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F218" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="G218" s="19" t="s">
         <v>11</v>
@@ -8332,24 +8602,24 @@
         <v>43648</v>
       </c>
       <c r="J218" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="219" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B219" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G219" s="19" t="s">
         <v>11</v>
@@ -8359,21 +8629,21 @@
         <v>45894</v>
       </c>
       <c r="J219" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="2:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B220" s="7">
-        <v>203</v>
+      <c r="B220" s="6">
+        <v>202</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>112</v>
@@ -8386,21 +8656,21 @@
         <v>45471</v>
       </c>
       <c r="J220" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="221" spans="2:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="B221" s="21">
-        <v>204</v>
-      </c>
-      <c r="C221" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="D221" s="21" t="s">
+      <c r="B221" s="6">
+        <v>203</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E221" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="E221" s="21" t="s">
-        <v>532</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>112</v>
@@ -8408,22 +8678,191 @@
       <c r="G221" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H221" s="21"/>
-      <c r="I221" s="23">
+      <c r="H221" s="7"/>
+      <c r="I221" s="14">
         <v>46022</v>
       </c>
-      <c r="J221" s="22" t="s">
-        <v>524</v>
-      </c>
+      <c r="J221" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B222" s="6">
+        <v>204</v>
+      </c>
+      <c r="C222" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E222" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G222" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" s="21"/>
+      <c r="I222" s="23">
+        <v>46008</v>
+      </c>
+      <c r="J222" s="22"/>
+    </row>
+    <row r="223" spans="2:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="B223" s="6">
+        <v>205</v>
+      </c>
+      <c r="C223" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="D223" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E223" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G223" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" s="21"/>
+      <c r="I223" s="23">
+        <v>45974</v>
+      </c>
+      <c r="J223" s="22"/>
+    </row>
+    <row r="224" spans="2:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="B224" s="6">
+        <v>206</v>
+      </c>
+      <c r="C224" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="D224" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E224" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G224" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" s="21"/>
+      <c r="I224" s="23">
+        <v>45987</v>
+      </c>
+      <c r="J224" s="22"/>
+    </row>
+    <row r="225" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="B225" s="6">
+        <v>207</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="D225" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="E225" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G225" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" s="21"/>
+      <c r="I225" s="23">
+        <v>45987</v>
+      </c>
+      <c r="J225" s="22"/>
+    </row>
+    <row r="226" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B226" s="6">
+        <v>208</v>
+      </c>
+      <c r="C226" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="D226" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G226" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" s="21"/>
+      <c r="I226" s="23">
+        <v>45798</v>
+      </c>
+      <c r="J226" s="22"/>
+    </row>
+    <row r="227" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B227" s="6">
+        <v>209</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D227" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G227" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="21"/>
+      <c r="I227" s="23">
+        <v>45849</v>
+      </c>
+      <c r="J227" s="22"/>
+    </row>
+    <row r="228" spans="2:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="B228" s="6">
+        <v>210</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D228" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G228" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="21"/>
+      <c r="I228" s="23">
+        <v>45849</v>
+      </c>
+      <c r="J228" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G192:H196">
-    <sortCondition ref="G192:G196"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G193:H197">
+    <sortCondition ref="G193:G197"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:G221">
+  <conditionalFormatting sqref="G19:G228">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Невідомо"</formula>
     </cfRule>
@@ -8551,10 +8990,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="6" t="s">
@@ -8665,13 +9104,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>67</v>
